--- a/data/hotels_by_city/Dallas/Dallas_shard_766.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_766.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,628 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r546888463-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109111</t>
+  </si>
+  <si>
+    <t>546888463</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Be aware of thefts</t>
+  </si>
+  <si>
+    <t>First i am a marriott platinum elite. Stay at marriotts all the time so not blaming corporate yet depending on outcome. I booked this hotel to attend my nephews wedding. I could not go so my wife and my 2 sisters stayed. Very nice hotel. Newly renovated. However my sisters rings were stolen from the room. The maid of course denied it and the manager treated my sisters amd wife as if they were making it up. The maid was arrested however instead of isolating the maid the manager was searching the room. Anyway i am just saying i will never stay at that hotel nor recommend anyone to stay. The hotel insurance company is investigating to determine if hotel is liable. Really?  Hiring a employee with a warrant?  . For theft?MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jenelle M, Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>First i am a marriott platinum elite. Stay at marriotts all the time so not blaming corporate yet depending on outcome. I booked this hotel to attend my nephews wedding. I could not go so my wife and my 2 sisters stayed. Very nice hotel. Newly renovated. However my sisters rings were stolen from the room. The maid of course denied it and the manager treated my sisters amd wife as if they were making it up. The maid was arrested however instead of isolating the maid the manager was searching the room. Anyway i am just saying i will never stay at that hotel nor recommend anyone to stay. The hotel insurance company is investigating to determine if hotel is liable. Really?  Hiring a employee with a warrant?  . For theft?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r526390577-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>526390577</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Good business hotel</t>
+  </si>
+  <si>
+    <t>Good business hotel located north of FW on I20, easy to get to and from. I didn't go out for dinner but there seemed to be couple of strip malls with restaurants nearby. Standard buffet breakfast with some good options, very friendly and helpful staff. My biggest disappointment is really tiny gym but I was the only one there at my workout times so wasn't big issue. Hotel itself is tiny bit worn out BUT the rooms seem to have been remodeled lately.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r523381684-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>523381684</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Cosy and clean</t>
+  </si>
+  <si>
+    <t>Stayed there for a few days in November 2016. Felt like we are home and it was cozy. Rooms are pretty clean. All the staffs were very helpful. Housekeeping, breakfast everything were strictly on schedule. I will highly recommend this hotel if you need to stay in that area.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r504949344-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>504949344</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Six flags/ Hurricane Harbor</t>
+  </si>
+  <si>
+    <t>We have previously stayed a Towne Place Suites and really enjoyed it. We usually stay at the one across from Hurricane Harbor but it was completely booked. This one was just as great. The staff was delightful, the Room was super clean and the breakfast was good. Really enjoyed our stay the room was very spacious for our 6 person family.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r495737961-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>495737961</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Remarkably great!</t>
+  </si>
+  <si>
+    <t>From the FULL kitchen to the very friendly staff, this is THE place you want to be for ANY extended stay in the Ft. Worth area. It is conveniently located to everything via either Loop 820 or direct roads going into Hulen.The place is clean, well stocked and the beds are GREAT!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r495151654-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>495151654</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Very nice location</t>
+  </si>
+  <si>
+    <t>This hotel is in a very nice residential area just slightly north of downtown Fort Worth.  It is a lovely neighborhood for a morning walk.  We were bothered just a little bit by loud walking/jumping above us in the evening but it didn't affect our sleep.  There is a train track nearby but we didn't hear any noise at all from that.  The breakfast was OK.  I appreciate the paper plates (rather than the styrofoam used by some hotels.)  It was pleasant to sit by the outside pool and eat.  The room itself was large with a full kitchen. Parking and wifi were free.  The tv reception was uneven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r435488658-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>435488658</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Quiet, Friendly and Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here the second night of a conference and wish I had found it the first night.  I was cean, comfortable and well equipt.  When I checked in the staff was friendly and welcoming.  My only problem is his 4 looked like a 7 and so it took be a while to find the room.  But it was right where he had said it would be.There was a really nice seating area out by the pool and as it was a comfortable Texas night I sat out by the pool and relaxed.  The room was great.  It had a nice kitchen, office area, sitting area and very comfortable bed.Breakfast was great.  I mean there are Texas shaped waffles on top of eggs, suasage and biscuits.  The price was less than half the "special conference rate" at the conference hotel and you only got a room.  I got a suite, coffee, breakfast and saved money.  What a deal!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I stayed here the second night of a conference and wish I had found it the first night.  I was cean, comfortable and well equipt.  When I checked in the staff was friendly and welcoming.  My only problem is his 4 looked like a 7 and so it took be a while to find the room.  But it was right where he had said it would be.There was a really nice seating area out by the pool and as it was a comfortable Texas night I sat out by the pool and relaxed.  The room was great.  It had a nice kitchen, office area, sitting area and very comfortable bed.Breakfast was great.  I mean there are Texas shaped waffles on top of eggs, suasage and biscuits.  The price was less than half the "special conference rate" at the conference hotel and you only got a room.  I got a suite, coffee, breakfast and saved money.  What a deal!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r434674393-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>434674393</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Wonderful experience!</t>
+  </si>
+  <si>
+    <t>The price was right and our suite was clean and well-equipped.  Stayed in newly renovated building.  Front Office staff were very accommodating.  Great breakfast offerings.  Hotel is well located for TCU as well as to hop on the interstate.  Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r426244967-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>426244967</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>5 stars! Best Hotel Ever!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best hotels I have ever stayed at! Amazing staff, clean and updated hotel and good breakfast. The warm welcome and amazing staff has made this trip even better! Can't believe how great their customer service is and compared to 5 star hotels at double the price this hotel does a much better job at it! I never write reviews but had to since this is the first time I had a wow factor from a hotel. Everyone working here thank you for your hospitality and keep up the great work! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r395294069-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>395294069</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>It desperately needs the renovation it is getting.</t>
+  </si>
+  <si>
+    <t>Please keep in mind that this review is prior to the renovation being completed, so the room I stayed in was particularly dumpy.
+I checked in late at night and stayed here for roughly 3 weeks. The check in process was easy, and the front desk staff was amazing throughout the entire stay, and are the reason it got a 2/5 instead of a 1/5. Things went down hill once i got into the room though. I've never stripped a bed in a hotel so fast to check for bugs in my life (I did not find any). Everything in the room was dated, and it looked as if they stopped all maintenance a year in advance in anticipation of their remodel. The carpet was stained, the furniture was chipped and scuffed, and multiple repairs to the ceiling in the bathroom were really obvious.
+The housekeeping staff was pretty horrible. They would go several days without refilling the shampoo, essentially refused to do any of the dishes for the entire stay, and when they did it took 4 days for them to give me another pack of soap for the dishwasher itself. 
+The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while...Please keep in mind that this review is prior to the renovation being completed, so the room I stayed in was particularly dumpy.I checked in late at night and stayed here for roughly 3 weeks. The check in process was easy, and the front desk staff was amazing throughout the entire stay, and are the reason it got a 2/5 instead of a 1/5. Things went down hill once i got into the room though. I've never stripped a bed in a hotel so fast to check for bugs in my life (I did not find any). Everything in the room was dated, and it looked as if they stopped all maintenance a year in advance in anticipation of their remodel. The carpet was stained, the furniture was chipped and scuffed, and multiple repairs to the ceiling in the bathroom were really obvious.The housekeeping staff was pretty horrible. They would go several days without refilling the shampoo, essentially refused to do any of the dishes for the entire stay, and when they did it took 4 days for them to give me another pack of soap for the dishwasher itself. The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while they tried to maneuver themselves through the tiny parking lot.Breakfast was okay, but the room was pretty small and it could have used a bit more variety from day to day rather than 'fried egg with cracked pepper' plus a random breakfast meat.Unfortunately if you are looking for a Marriott in the area, there really isn't anything else and hopefully their remodel will bring it up to par. I might be okay staying here again but only in another year or so once construction is finished.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stephen G, General Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded July 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2016</t>
+  </si>
+  <si>
+    <t>Please keep in mind that this review is prior to the renovation being completed, so the room I stayed in was particularly dumpy.
+I checked in late at night and stayed here for roughly 3 weeks. The check in process was easy, and the front desk staff was amazing throughout the entire stay, and are the reason it got a 2/5 instead of a 1/5. Things went down hill once i got into the room though. I've never stripped a bed in a hotel so fast to check for bugs in my life (I did not find any). Everything in the room was dated, and it looked as if they stopped all maintenance a year in advance in anticipation of their remodel. The carpet was stained, the furniture was chipped and scuffed, and multiple repairs to the ceiling in the bathroom were really obvious.
+The housekeeping staff was pretty horrible. They would go several days without refilling the shampoo, essentially refused to do any of the dishes for the entire stay, and when they did it took 4 days for them to give me another pack of soap for the dishwasher itself. 
+The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while...Please keep in mind that this review is prior to the renovation being completed, so the room I stayed in was particularly dumpy.I checked in late at night and stayed here for roughly 3 weeks. The check in process was easy, and the front desk staff was amazing throughout the entire stay, and are the reason it got a 2/5 instead of a 1/5. Things went down hill once i got into the room though. I've never stripped a bed in a hotel so fast to check for bugs in my life (I did not find any). Everything in the room was dated, and it looked as if they stopped all maintenance a year in advance in anticipation of their remodel. The carpet was stained, the furniture was chipped and scuffed, and multiple repairs to the ceiling in the bathroom were really obvious.The housekeeping staff was pretty horrible. They would go several days without refilling the shampoo, essentially refused to do any of the dishes for the entire stay, and when they did it took 4 days for them to give me another pack of soap for the dishwasher itself. The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while they tried to maneuver themselves through the tiny parking lot.Breakfast was okay, but the room was pretty small and it could have used a bit more variety from day to day rather than 'fried egg with cracked pepper' plus a random breakfast meat.Unfortunately if you are looking for a Marriott in the area, there really isn't anything else and hopefully their remodel will bring it up to par. I might be okay staying here again but only in another year or so once construction is finished.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r383363344-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>383363344</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We were on our way home from San Antonio and needed a 2 bedroom hotel suite. Towneplace was clean and the front desk was very helpful. They also had a great breakfast! I would stay here again. Great location!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r374151047-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>374151047</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We had gone to TCU graduation and this location was perfect and didn't have to fight traffic. We had the 2 room suite and was perfect. Needing some updating but was told that will begin soon. It is just across from plenty of eating places and a mall, if that is what you are needing. Easy to find and easy free parking.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r326563910-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>326563910</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Suite Deal</t>
+  </si>
+  <si>
+    <t>This property must be brand new. The bathroom was really spotless. All new carpet .All new paint .really nice. All the light were in great shape. Ironing board and iron. Extra blanket in closet.The staff is really friendly and happy.I talked with two of them and they were helpful with my questions.The breakfast was great with fresh cereal and fruit,. All included in the reasonable rate. I got two bedrooms as with my wife and Daughter.Nice Upsacfle neighborhood that its on the edge of.Right by freeway.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r324861142-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>324861142</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Great staff, But HORRIBLE Room</t>
+  </si>
+  <si>
+    <t>The staff was great, but the room was terrible. I was upgraded to the two bedroom, but it really stinks. I always stay at marriots and this was probably the worst condition. It was clean, but since it was so old and run down. it was just nasty. the couch was so old dirty looking that i took the other sheets from the other room and draped it on the couch. even the cleaning lady knew what i was doing to re do it. I would not stay here again for the price, but i was staying for workMoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen G, General Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded November 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2015</t>
+  </si>
+  <si>
+    <t>The staff was great, but the room was terrible. I was upgraded to the two bedroom, but it really stinks. I always stay at marriots and this was probably the worst condition. It was clean, but since it was so old and run down. it was just nasty. the couch was so old dirty looking that i took the other sheets from the other room and draped it on the couch. even the cleaning lady knew what i was doing to re do it. I would not stay here again for the price, but i was staying for workMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r288561619-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>288561619</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Run Down</t>
+  </si>
+  <si>
+    <t>We stay regularly at Marriott family hotels, and this was a real disappointment.  Carpet needed cleaning, halls were dirty, and breakfast was not up to the quality of other TownPlace Suites or FairField Inns.  Refrigerator freezer was heavily coated with frost and ice cube trays were seriously cracked. Chair at desk/work station looked like it had been rescued from a dumpster. Sofa needed the upholstery cleaned and was covered in spots.  Internet service did work fine.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r270252429-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>270252429</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Typical Extended Stay Room Nothing Special</t>
+  </si>
+  <si>
+    <t>Stayed here one night, best option, nice big room. Right by major highway. Good food across the freeway (In and Out) and a mall. Many food places open late. Nothing bad about this place and nothing special either. Service good. Facility is a little on the older side. Despite proximity to freeway, it was not really noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Stephen G, General Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded May 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here one night, best option, nice big room. Right by major highway. Good food across the freeway (In and Out) and a mall. Many food places open late. Nothing bad about this place and nothing special either. Service good. Facility is a little on the older side. Despite proximity to freeway, it was not really noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r265149695-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>265149695</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed in a two bedroom suite for two nights while taking the family to the zoo and other attractions. We were looking for an easy place to stay with two children that go to sleep at different times(11 year old and 2 year old). This is the place! The staff was extremely polite and helpful. The hotel is located close to multiple restaurants. Kitchen in the room comes in handy for bringing back take-out. We did not get a chance to try the breakfast, but the eating area was very clean and inviting. Overall this was an excellent choice for a family stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r235056191-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>235056191</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>Different sort of hotel with 2 separate buildings connected by the parking lot.  Free breakfast includes mostly cold stuff but they do have a make your own waffle maker.  Staff exceedingly pleasant and friendly, especially Anna at the front desk check-in.  She even called us a few hours after we left to tell us we'd left a shirt in the room, although it must have been from a guest before us as it wasn't ours when she described it.  Definitely would stay here again but not as nice as most Towne Place Suites.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r184316740-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>184316740</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Set the Record Straight</t>
+  </si>
+  <si>
+    <t>Before going to TownePlace Suites  I read several of the reviews and thought I would stay elsewhere; however, it was a week-end when most hotels were booked in the area so it was here or a good distance away.  So my two friends and I went and all of us were pleasantly surprised.  From the moment we entered the hotel, the front desk clerk was cheerful and very helpful with information about out destination for the evening and explaining the location of the rooms, etc.  When we arrived in the rooms (we had two rooms) both were clean and we were again pleasantly surprised.  It is true it is an older hotel but I think the staff does an outstanding job in keeping it clean and welcoming for the guests.  Personally I think several of these reviewers are just way too critical.  I don't agree with much of what the critics had to say.  I would definitely stay here again if in the southwest Ft. Worth area.  Oh, by the way,we had no trouble getting back onto I-20 to get to our destination.  Very easy access, so I don't know what that criticism was about.The breakfast was more than adequate.  Plenty of items to choose from and area was clean and inviting.  True, there is not a lot of sitting space but have no problem with eating in the room, if necessary.L. Aldridge, OKC, OKMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Before going to TownePlace Suites  I read several of the reviews and thought I would stay elsewhere; however, it was a week-end when most hotels were booked in the area so it was here or a good distance away.  So my two friends and I went and all of us were pleasantly surprised.  From the moment we entered the hotel, the front desk clerk was cheerful and very helpful with information about out destination for the evening and explaining the location of the rooms, etc.  When we arrived in the rooms (we had two rooms) both were clean and we were again pleasantly surprised.  It is true it is an older hotel but I think the staff does an outstanding job in keeping it clean and welcoming for the guests.  Personally I think several of these reviewers are just way too critical.  I don't agree with much of what the critics had to say.  I would definitely stay here again if in the southwest Ft. Worth area.  Oh, by the way,we had no trouble getting back onto I-20 to get to our destination.  Very easy access, so I don't know what that criticism was about.The breakfast was more than adequate.  Plenty of items to choose from and area was clean and inviting.  True, there is not a lot of sitting space but have no problem with eating in the room, if necessary.L. Aldridge, OKC, OKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r160938260-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>160938260</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Terrible Stay..</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get...My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get all of our stuff in there, its now 1am.  I yanked the blankets back and I see a TON of long black body hair... and stains all of the white sheets.... I start looking around more, there is trash in all the trash cans, hair all over the bathroom, dirty towels balled up in the floor, used toothbrush, used bar of soap and pee in the toilet.... the room had not been cleaned from the previous guest...  So we asked for more sheets and blankets and we had to change the bedding ourselves, its now 2am and my husbands first day at his new job, starts at 6am! The bedding they gave us smelled like a old moldy man.  We only had two days left so we just toughed it out.  We did ask for a late check out because our new apartment wouldn't be ready until 5pm.  And they refused to let us stay, without charging us for a full day.  We even explained to them all of the crap we had to put up with and they still refused to let us stay.  So, there I was with two kids, sitting out in the parking lot until 5pm until I could get into my apartment.   I would not recommend this hotel, you find a nicer, newer and cheaper hotel in the same area...MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get...My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get all of our stuff in there, its now 1am.  I yanked the blankets back and I see a TON of long black body hair... and stains all of the white sheets.... I start looking around more, there is trash in all the trash cans, hair all over the bathroom, dirty towels balled up in the floor, used toothbrush, used bar of soap and pee in the toilet.... the room had not been cleaned from the previous guest...  So we asked for more sheets and blankets and we had to change the bedding ourselves, its now 2am and my husbands first day at his new job, starts at 6am! The bedding they gave us smelled like a old moldy man.  We only had two days left so we just toughed it out.  We did ask for a late check out because our new apartment wouldn't be ready until 5pm.  And they refused to let us stay, without charging us for a full day.  We even explained to them all of the crap we had to put up with and they still refused to let us stay.  So, there I was with two kids, sitting out in the parking lot until 5pm until I could get into my apartment.   I would not recommend this hotel, you find a nicer, newer and cheaper hotel in the same area...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r157260188-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>157260188</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Not The Nicest TPS</t>
+  </si>
+  <si>
+    <t>I spent one night at this TownePlace Suites.  I found the outside and the stairways to be very dirty and smelly.  My room was a one bedroom queen "suite" that was not much bigger than a standard hotel room, but did have a kitchenette, couch, and desk area.  My room was relatively clean, but clearly had wear and tear.  There were stains on the couch and on the carpet.  I did not understand the polka dot shower curtain at all.The breakfast was served in the lobby with the expectation that you would get it and go.  The coffee was excellent and they provided Tropicana orange juice in bottles which was delicious.  I was happy to find a wide range of cereals, including Special K with strawberries! on the other hand, the muffins, Jimmy Dean frozen foods, etc. were substandard at best.  Given the choice, I would not stay here again and would seek lodging on the other side of the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent one night at this TownePlace Suites.  I found the outside and the stairways to be very dirty and smelly.  My room was a one bedroom queen "suite" that was not much bigger than a standard hotel room, but did have a kitchenette, couch, and desk area.  My room was relatively clean, but clearly had wear and tear.  There were stains on the couch and on the carpet.  I did not understand the polka dot shower curtain at all.The breakfast was served in the lobby with the expectation that you would get it and go.  The coffee was excellent and they provided Tropicana orange juice in bottles which was delicious.  I was happy to find a wide range of cereals, including Special K with strawberries! on the other hand, the muffins, Jimmy Dean frozen foods, etc. were substandard at best.  Given the choice, I would not stay here again and would seek lodging on the other side of the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r130759125-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>130759125</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>My family had the pleasure of staying here for a period of 3 months while in transition overseas. We have nothing but FABULOUS things to say about the hotel. The location was excellent, near shopping and restaurants, even without a car all day I could walk to a supermarket, and nearby shops and restaurants. Even take a taxi to the mall if needed. Laundry onsite was great, kitchen in the room, the gym, grab and go breakfast, fresh cookies every night and even local restaurants had meet and greets during the week The staff was friendly and standing by to make sure our stay was comfortable (I asked for a non stick frying pan and I got it!) Marlon, Lori and the gang went out of their way and always with a smile, no matter what our request was. Hands down after staying in 4 properties before we found Townplace, this is our home away from home when in FW! Great Job guys!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>My family had the pleasure of staying here for a period of 3 months while in transition overseas. We have nothing but FABULOUS things to say about the hotel. The location was excellent, near shopping and restaurants, even without a car all day I could walk to a supermarket, and nearby shops and restaurants. Even take a taxi to the mall if needed. Laundry onsite was great, kitchen in the room, the gym, grab and go breakfast, fresh cookies every night and even local restaurants had meet and greets during the week The staff was friendly and standing by to make sure our stay was comfortable (I asked for a non stick frying pan and I got it!) Marlon, Lori and the gang went out of their way and always with a smile, no matter what our request was. Hands down after staying in 4 properties before we found Townplace, this is our home away from home when in FW! Great Job guys!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r122850148-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>122850148</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>5 Stars because they earned it</t>
+  </si>
+  <si>
+    <t>The wife and I recently spent 2 weekend nights here.  We normally would have stayed in downtown FW or Arlington but the Cotton Bowel had driven up the prices considerably.  The day of our arrival I received an email from the manager welcoming us to their property.  I told told him that we would be there to celebrate our anniversary.  Upon arrival the desk clerk Laurie greeted us and immediately wished us a happy anniversary.  She then gave us a printed list of things to do in the area and made recommendations as to restaurants, etc.  She then handed us a goodie bag with bottled water and cookies and advised us they had upgraded our room to a 1 bed-room suite free of charge.   Upon entry to the room I discovered that they had left a small flower arrangement with a card wishing us a happy anniversary.  Nice touch.  
+The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the...The wife and I recently spent 2 weekend nights here.  We normally would have stayed in downtown FW or Arlington but the Cotton Bowel had driven up the prices considerably.  The day of our arrival I received an email from the manager welcoming us to their property.  I told told him that we would be there to celebrate our anniversary.  Upon arrival the desk clerk Laurie greeted us and immediately wished us a happy anniversary.  She then gave us a printed list of things to do in the area and made recommendations as to restaurants, etc.  She then handed us a goodie bag with bottled water and cookies and advised us they had upgraded our room to a 1 bed-room suite free of charge.   Upon entry to the room I discovered that they had left a small flower arrangement with a card wishing us a happy anniversary.  Nice touch.  The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the whole day to refresh our room. The location of the hotel can be a bit tricky, especially getting back to I-20.   Upon checkout Laurie was there again ensuring that we had a good stay.  Friendliness and service were above and beyond what I expected and exceeded any hotel I've stayed in this year by far.  Definitely put this place on your list.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>The wife and I recently spent 2 weekend nights here.  We normally would have stayed in downtown FW or Arlington but the Cotton Bowel had driven up the prices considerably.  The day of our arrival I received an email from the manager welcoming us to their property.  I told told him that we would be there to celebrate our anniversary.  Upon arrival the desk clerk Laurie greeted us and immediately wished us a happy anniversary.  She then gave us a printed list of things to do in the area and made recommendations as to restaurants, etc.  She then handed us a goodie bag with bottled water and cookies and advised us they had upgraded our room to a 1 bed-room suite free of charge.   Upon entry to the room I discovered that they had left a small flower arrangement with a card wishing us a happy anniversary.  Nice touch.  
+The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the...The wife and I recently spent 2 weekend nights here.  We normally would have stayed in downtown FW or Arlington but the Cotton Bowel had driven up the prices considerably.  The day of our arrival I received an email from the manager welcoming us to their property.  I told told him that we would be there to celebrate our anniversary.  Upon arrival the desk clerk Laurie greeted us and immediately wished us a happy anniversary.  She then gave us a printed list of things to do in the area and made recommendations as to restaurants, etc.  She then handed us a goodie bag with bottled water and cookies and advised us they had upgraded our room to a 1 bed-room suite free of charge.   Upon entry to the room I discovered that they had left a small flower arrangement with a card wishing us a happy anniversary.  Nice touch.  The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the whole day to refresh our room. The location of the hotel can be a bit tricky, especially getting back to I-20.   Upon checkout Laurie was there again ensuring that we had a good stay.  Friendliness and service were above and beyond what I expected and exceeded any hotel I've stayed in this year by far.  Definitely put this place on your list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r121136865-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>121136865</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Great value and location.</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at several Towneplace Suite properties throughout texas. This one was newer and very clean. The kitchenette was updated with nice appliances and the flooring was much improved. The rate was reasonable and the front desk staff was very accommodating. If you are looking for trendy and modern, this is not the place for you. If you want clean, great price, location to the downtown area and main attractions and a kitchenette to help with your food budget this is the place to be!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r115925367-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>115925367</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for one night. The front desk staff were very rude. They would hardly even look at us when we checked in. There was a paper on the desk stating that the water for the hotel would be turned off at 9 am the next morning. I am glad that we noticed it or we would not have know about the water. I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>pperr484, General Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded August 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2011</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for one night. The front desk staff were very rude. They would hardly even look at us when we checked in. There was a paper on the desk stating that the water for the hotel would be turned off at 9 am the next morning. I am glad that we noticed it or we would not have know about the water. I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r111452998-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>111452998</t>
+  </si>
+  <si>
+    <t>06/04/2011</t>
+  </si>
+  <si>
+    <t>What a Great Staff and Awesome Night</t>
+  </si>
+  <si>
+    <t>I would just like to THANK greatly the staff of TownePlace Suites for accomodating my sister from New York, my body guard and myself in a beautiful, cleanly, suite with such a comfortable nights rest after along day of travel for my sister. The room was spectacular and the breakfast nice and hot fresh and filling. Love the Hot Fresh made belgian waffles with strawberry topping and the eggs light and fluffy. It was filling and I enjoyed it greatly before going to handle court proceedings. It was an amazing night of rest with a comfy bed and great amount of pillows!!! Thanks you really made the night stay welcoming!!  A.Catanese Downtown Fort Worth, TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I would just like to THANK greatly the staff of TownePlace Suites for accomodating my sister from New York, my body guard and myself in a beautiful, cleanly, suite with such a comfortable nights rest after along day of travel for my sister. The room was spectacular and the breakfast nice and hot fresh and filling. Love the Hot Fresh made belgian waffles with strawberry topping and the eggs light and fluffy. It was filling and I enjoyed it greatly before going to handle court proceedings. It was an amazing night of rest with a comfy bed and great amount of pillows!!! Thanks you really made the night stay welcoming!!  A.Catanese Downtown Fort Worth, TexasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r95171369-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>95171369</t>
+  </si>
+  <si>
+    <t>02/01/2011</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>We first stayed at this TownePlace Suites 10+ years ago when we relocated to the area.  Then we had an adequately furnished one bedroom hotel room...comfortable but simply furnished and not to many extras.  Having since moved from the area we returned for a week and chose this property due to its location to friends and family.
+What a difference!  Several years ago the hotel was remodeled and it is now so much more comfortable.  We stayed using our Marriott Reward Points and learned upon checking in that we had been upgraded to a two bedroom suite.  This was perfect since our granddaughter was going to spend the weekend with us.  The suite was nicely furnished with comfortable beds, living room furniture, good lighting and a simple but very functional kitchen.
+The breakfast is their "Grab and Go" design.  Small bags were provided for you to literally grab and go.  There were muffins, instant oatmeal, yogurt, fruit, granola bars, cereals, and varieties of coffee and teas.  In the afternoon a plate of freshly baked cookies were available in the lobby.  The coffee and tea station was available all day as well as a small area where one could purchase snacks and other items.
+There are washers and dryers available at a minimal cost, a small exercise room and an outdoor pool.  WiFi was available and computers were located in the lobby.  
+We did have a problem one morning with the...We first stayed at this TownePlace Suites 10+ years ago when we relocated to the area.  Then we had an adequately furnished one bedroom hotel room...comfortable but simply furnished and not to many extras.  Having since moved from the area we returned for a week and chose this property due to its location to friends and family.What a difference!  Several years ago the hotel was remodeled and it is now so much more comfortable.  We stayed using our Marriott Reward Points and learned upon checking in that we had been upgraded to a two bedroom suite.  This was perfect since our granddaughter was going to spend the weekend with us.  The suite was nicely furnished with comfortable beds, living room furniture, good lighting and a simple but very functional kitchen.The breakfast is their "Grab and Go" design.  Small bags were provided for you to literally grab and go.  There were muffins, instant oatmeal, yogurt, fruit, granola bars, cereals, and varieties of coffee and teas.  In the afternoon a plate of freshly baked cookies were available in the lobby.  The coffee and tea station was available all day as well as a small area where one could purchase snacks and other items.There are washers and dryers available at a minimal cost, a small exercise room and an outdoor pool.  WiFi was available and computers were located in the lobby.  We did have a problem one morning with the room's telephones.  After alerting the front desk the maintenance people got right on it and fixed the problem.  Front desk personnel were pleasant and helpful.No question about it...we'll stay here again when we return for another visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>We first stayed at this TownePlace Suites 10+ years ago when we relocated to the area.  Then we had an adequately furnished one bedroom hotel room...comfortable but simply furnished and not to many extras.  Having since moved from the area we returned for a week and chose this property due to its location to friends and family.
+What a difference!  Several years ago the hotel was remodeled and it is now so much more comfortable.  We stayed using our Marriott Reward Points and learned upon checking in that we had been upgraded to a two bedroom suite.  This was perfect since our granddaughter was going to spend the weekend with us.  The suite was nicely furnished with comfortable beds, living room furniture, good lighting and a simple but very functional kitchen.
+The breakfast is their "Grab and Go" design.  Small bags were provided for you to literally grab and go.  There were muffins, instant oatmeal, yogurt, fruit, granola bars, cereals, and varieties of coffee and teas.  In the afternoon a plate of freshly baked cookies were available in the lobby.  The coffee and tea station was available all day as well as a small area where one could purchase snacks and other items.
+There are washers and dryers available at a minimal cost, a small exercise room and an outdoor pool.  WiFi was available and computers were located in the lobby.  
+We did have a problem one morning with the...We first stayed at this TownePlace Suites 10+ years ago when we relocated to the area.  Then we had an adequately furnished one bedroom hotel room...comfortable but simply furnished and not to many extras.  Having since moved from the area we returned for a week and chose this property due to its location to friends and family.What a difference!  Several years ago the hotel was remodeled and it is now so much more comfortable.  We stayed using our Marriott Reward Points and learned upon checking in that we had been upgraded to a two bedroom suite.  This was perfect since our granddaughter was going to spend the weekend with us.  The suite was nicely furnished with comfortable beds, living room furniture, good lighting and a simple but very functional kitchen.The breakfast is their "Grab and Go" design.  Small bags were provided for you to literally grab and go.  There were muffins, instant oatmeal, yogurt, fruit, granola bars, cereals, and varieties of coffee and teas.  In the afternoon a plate of freshly baked cookies were available in the lobby.  The coffee and tea station was available all day as well as a small area where one could purchase snacks and other items.There are washers and dryers available at a minimal cost, a small exercise room and an outdoor pool.  WiFi was available and computers were located in the lobby.  We did have a problem one morning with the room's telephones.  After alerting the front desk the maintenance people got right on it and fixed the problem.  Front desk personnel were pleasant and helpful.No question about it...we'll stay here again when we return for another visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r12966654-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>12966654</t>
+  </si>
+  <si>
+    <t>01/24/2008</t>
+  </si>
+  <si>
+    <t>Typical TPS, could use a little refresher!</t>
+  </si>
+  <si>
+    <t>Hotel was okay for the price, however it seemed like there were quite a few college aged kids staying at the hotel.  They were not loud, however hallways and elevators were not the cleanest.  The bedding was fine in the room, and carpet, etc was clean.  Just could use a cleaning or paint job.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r8460957-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>8460957</t>
+  </si>
+  <si>
+    <t>08/19/2007</t>
+  </si>
+  <si>
+    <t>Not bad for long stays. Could use some renovating</t>
+  </si>
+  <si>
+    <t>I stayed at this location due to many others being booked in the area and this one was one of the last available for last minute reservations. This is truly one of those places that is made for extended stays. If you're not planning on using the refrigerator, the stove or any of the other items, then maybe you're better off getting a normal hotel room. Half of the room is taken up by the kitchen. Overall, the rooms are clean and have everything you need. The bathrooms are small and most of the carpet and furniture needs to be replaced soon.  However, if you can manage to get this room for less than $90 a night, you'll be getting your money's worth. There is a mall across the highway and plenty of things to do and lots of places to eat as well. One thing to note: The hotel only has one small entrance and if you miss it, you have to go through a maze of parking lots to get back in.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this location due to many others being booked in the area and this one was one of the last available for last minute reservations. This is truly one of those places that is made for extended stays. If you're not planning on using the refrigerator, the stove or any of the other items, then maybe you're better off getting a normal hotel room. Half of the room is taken up by the kitchen. Overall, the rooms are clean and have everything you need. The bathrooms are small and most of the carpet and furniture needs to be replaced soon.  However, if you can manage to get this room for less than $90 a night, you'll be getting your money's worth. There is a mall across the highway and plenty of things to do and lots of places to eat as well. One thing to note: The hotel only has one small entrance and if you miss it, you have to go through a maze of parking lots to get back in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r4033181-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>4033181</t>
+  </si>
+  <si>
+    <t>10/17/2005</t>
+  </si>
+  <si>
+    <t>not bad, little pricey for what you get</t>
+  </si>
+  <si>
+    <t>not a bad place.  townplace suites are hit or miss.  some are great, some are dirty, some are so-so.  this one's so-so.  some townplace suites (one in bedford) give you hot breakfast, not this one.  staff is friendly enough, and helpful.  place is only couple years old, but is starting to show the age.  for $80, you'd think you could get a little more in comfort, cleaniness, and service.  locations ok.  bit difficult to get to, have to either snake thru an office parking lot, or travel the feeder a little bit.  only one way out of the complex, so if you want to go east, bit inconvenient (or you can just break traffic laws like most Texans)MoreShow less</t>
+  </si>
+  <si>
+    <t>not a bad place.  townplace suites are hit or miss.  some are great, some are dirty, some are so-so.  this one's so-so.  some townplace suites (one in bedford) give you hot breakfast, not this one.  staff is friendly enough, and helpful.  place is only couple years old, but is starting to show the age.  for $80, you'd think you could get a little more in comfort, cleaniness, and service.  locations ok.  bit difficult to get to, have to either snake thru an office parking lot, or travel the feeder a little bit.  only one way out of the complex, so if you want to go east, bit inconvenient (or you can just break traffic laws like most Texans)More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1270,1874 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_766.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_766.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nyquistr</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>First i am a marriott platinum elite. Stay at marriotts all the time so not blaming corporate yet depending on outcome. I booked this hotel to attend my nephews wedding. I could not go so my wife and my 2 sisters stayed. Very nice hotel. Newly renovated. However my sisters rings were stolen from the room. The maid of course denied it and the manager treated my sisters amd wife as if they were making it up. The maid was arrested however instead of isolating the maid the manager was searching the room. Anyway i am just saying i will never stay at that hotel nor recommend anyone to stay. The hotel insurance company is investigating to determine if hotel is liable. Really?  Hiring a employee with a warrant?  . For theft?More</t>
   </si>
   <si>
+    <t>Konstantin E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r526390577-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Apurba1487</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r523381684-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>jalonzo22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r504949344-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Jessalyn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r495737961-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>20Carolyn10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r495151654-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>billybob76511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r435488658-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>I stayed here the second night of a conference and wish I had found it the first night.  I was cean, comfortable and well equipt.  When I checked in the staff was friendly and welcoming.  My only problem is his 4 looked like a 7 and so it took be a while to find the room.  But it was right where he had said it would be.There was a really nice seating area out by the pool and as it was a comfortable Texas night I sat out by the pool and relaxed.  The room was great.  It had a nice kitchen, office area, sitting area and very comfortable bed.Breakfast was great.  I mean there are Texas shaped waffles on top of eggs, suasage and biscuits.  The price was less than half the "special conference rate" at the conference hotel and you only got a room.  I got a suite, coffee, breakfast and saved money.  What a deal!More</t>
   </si>
   <si>
+    <t>12102pebblebrook</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r434674393-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Droos420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r426244967-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -334,6 +361,9 @@
   </si>
   <si>
     <t xml:space="preserve">One of the best hotels I have ever stayed at! Amazing staff, clean and updated hotel and good breakfast. The warm welcome and amazing staff has made this trip even better! Can't believe how great their customer service is and compared to 5 star hotels at double the price this hotel does a much better job at it! I never write reviews but had to since this is the first time I had a wow factor from a hotel. Everyone working here thank you for your hospitality and keep up the great work! </t>
+  </si>
+  <si>
+    <t>Rob S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r395294069-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -369,6 +399,9 @@
 The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while...Please keep in mind that this review is prior to the renovation being completed, so the room I stayed in was particularly dumpy.I checked in late at night and stayed here for roughly 3 weeks. The check in process was easy, and the front desk staff was amazing throughout the entire stay, and are the reason it got a 2/5 instead of a 1/5. Things went down hill once i got into the room though. I've never stripped a bed in a hotel so fast to check for bugs in my life (I did not find any). Everything in the room was dated, and it looked as if they stopped all maintenance a year in advance in anticipation of their remodel. The carpet was stained, the furniture was chipped and scuffed, and multiple repairs to the ceiling in the bathroom were really obvious.The housekeeping staff was pretty horrible. They would go several days without refilling the shampoo, essentially refused to do any of the dishes for the entire stay, and when they did it took 4 days for them to give me another pack of soap for the dishwasher itself. The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while they tried to maneuver themselves through the tiny parking lot.Breakfast was okay, but the room was pretty small and it could have used a bit more variety from day to day rather than 'fried egg with cracked pepper' plus a random breakfast meat.Unfortunately if you are looking for a Marriott in the area, there really isn't anything else and hopefully their remodel will bring it up to par. I might be okay staying here again but only in another year or so once construction is finished.More</t>
   </si>
   <si>
+    <t>Rcsaintj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r383363344-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>We were on our way home from San Antonio and needed a 2 bedroom hotel suite. Towneplace was clean and the front desk was very helpful. They also had a great breakfast! I would stay here again. Great location!</t>
   </si>
   <si>
+    <t>lonass</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r374151047-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Bowie23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r326563910-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Frankvo82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r324861142-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
     <t>The staff was great, but the room was terrible. I was upgraded to the two bedroom, but it really stinks. I always stay at marriots and this was probably the worst condition. It was clean, but since it was so old and run down. it was just nasty. the couch was so old dirty looking that i took the other sheets from the other room and draped it on the couch. even the cleaning lady knew what i was doing to re do it. I would not stay here again for the price, but i was staying for workMore</t>
   </si>
   <si>
+    <t>James P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r288561619-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Stephen G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r270252429-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>Stayed here one night, best option, nice big room. Right by major highway. Good food across the freeway (In and Out) and a mall. Many food places open late. Nothing bad about this place and nothing special either. Service good. Facility is a little on the older side. Despite proximity to freeway, it was not really noisy.More</t>
   </si>
   <si>
+    <t>TankerBG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r265149695-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -504,6 +555,9 @@
     <t xml:space="preserve">Stayed in a two bedroom suite for two nights while taking the family to the zoo and other attractions. We were looking for an easy place to stay with two children that go to sleep at different times(11 year old and 2 year old). This is the place! The staff was extremely polite and helpful. The hotel is located close to multiple restaurants. Kitchen in the room comes in handy for bringing back take-out. We did not get a chance to try the breakfast, but the eating area was very clean and inviting. Overall this was an excellent choice for a family stay. </t>
   </si>
   <si>
+    <t>N0rmalee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r235056191-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,6 +576,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Louise A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r184316740-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -546,6 +603,9 @@
     <t>Before going to TownePlace Suites  I read several of the reviews and thought I would stay elsewhere; however, it was a week-end when most hotels were booked in the area so it was here or a good distance away.  So my two friends and I went and all of us were pleasantly surprised.  From the moment we entered the hotel, the front desk clerk was cheerful and very helpful with information about out destination for the evening and explaining the location of the rooms, etc.  When we arrived in the rooms (we had two rooms) both were clean and we were again pleasantly surprised.  It is true it is an older hotel but I think the staff does an outstanding job in keeping it clean and welcoming for the guests.  Personally I think several of these reviewers are just way too critical.  I don't agree with much of what the critics had to say.  I would definitely stay here again if in the southwest Ft. Worth area.  Oh, by the way,we had no trouble getting back onto I-20 to get to our destination.  Very easy access, so I don't know what that criticism was about.The breakfast was more than adequate.  Plenty of items to choose from and area was clean and inviting.  True, there is not a lot of sitting space but have no problem with eating in the room, if necessary.L. Aldridge, OKC, OKMore</t>
   </si>
   <si>
+    <t>Sarah W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r160938260-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -567,6 +627,9 @@
     <t>My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get...My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get all of our stuff in there, its now 1am.  I yanked the blankets back and I see a TON of long black body hair... and stains all of the white sheets.... I start looking around more, there is trash in all the trash cans, hair all over the bathroom, dirty towels balled up in the floor, used toothbrush, used bar of soap and pee in the toilet.... the room had not been cleaned from the previous guest...  So we asked for more sheets and blankets and we had to change the bedding ourselves, its now 2am and my husbands first day at his new job, starts at 6am! The bedding they gave us smelled like a old moldy man.  We only had two days left so we just toughed it out.  We did ask for a late check out because our new apartment wouldn't be ready until 5pm.  And they refused to let us stay, without charging us for a full day.  We even explained to them all of the crap we had to put up with and they still refused to let us stay.  So, there I was with two kids, sitting out in the parking lot until 5pm until I could get into my apartment.   I would not recommend this hotel, you find a nicer, newer and cheaper hotel in the same area...More</t>
   </si>
   <si>
+    <t>JusticeSalmon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r157260188-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -585,6 +648,9 @@
     <t>I spent one night at this TownePlace Suites.  I found the outside and the stairways to be very dirty and smelly.  My room was a one bedroom queen "suite" that was not much bigger than a standard hotel room, but did have a kitchenette, couch, and desk area.  My room was relatively clean, but clearly had wear and tear.  There were stains on the couch and on the carpet.  I did not understand the polka dot shower curtain at all.The breakfast was served in the lobby with the expectation that you would get it and go.  The coffee was excellent and they provided Tropicana orange juice in bottles which was delicious.  I was happy to find a wide range of cereals, including Special K with strawberries! on the other hand, the muffins, Jimmy Dean frozen foods, etc. were substandard at best.  Given the choice, I would not stay here again and would seek lodging on the other side of the freeway.More</t>
   </si>
   <si>
+    <t>Anastasia457</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r130759125-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -604,6 +670,9 @@
   </si>
   <si>
     <t>My family had the pleasure of staying here for a period of 3 months while in transition overseas. We have nothing but FABULOUS things to say about the hotel. The location was excellent, near shopping and restaurants, even without a car all day I could walk to a supermarket, and nearby shops and restaurants. Even take a taxi to the mall if needed. Laundry onsite was great, kitchen in the room, the gym, grab and go breakfast, fresh cookies every night and even local restaurants had meet and greets during the week The staff was friendly and standing by to make sure our stay was comfortable (I asked for a non stick frying pan and I got it!) Marlon, Lori and the gang went out of their way and always with a smile, no matter what our request was. Hands down after staying in 4 properties before we found Townplace, this is our home away from home when in FW! Great Job guys!!!More</t>
+  </si>
+  <si>
+    <t>notyours</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r122850148-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -629,6 +698,9 @@
 The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the...The wife and I recently spent 2 weekend nights here.  We normally would have stayed in downtown FW or Arlington but the Cotton Bowel had driven up the prices considerably.  The day of our arrival I received an email from the manager welcoming us to their property.  I told told him that we would be there to celebrate our anniversary.  Upon arrival the desk clerk Laurie greeted us and immediately wished us a happy anniversary.  She then gave us a printed list of things to do in the area and made recommendations as to restaurants, etc.  She then handed us a goodie bag with bottled water and cookies and advised us they had upgraded our room to a 1 bed-room suite free of charge.   Upon entry to the room I discovered that they had left a small flower arrangement with a card wishing us a happy anniversary.  Nice touch.  The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the whole day to refresh our room. The location of the hotel can be a bit tricky, especially getting back to I-20.   Upon checkout Laurie was there again ensuring that we had a good stay.  Friendliness and service were above and beyond what I expected and exceeded any hotel I've stayed in this year by far.  Definitely put this place on your list.More</t>
   </si>
   <si>
+    <t>eneiford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r121136865-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -644,6 +716,9 @@
     <t>My husband and I have stayed at several Towneplace Suite properties throughout texas. This one was newer and very clean. The kitchenette was updated with nice appliances and the flooring was much improved. The rate was reasonable and the front desk staff was very accommodating. If you are looking for trendy and modern, this is not the place for you. If you want clean, great price, location to the downtown area and main attractions and a kitchenette to help with your food budget this is the place to be!</t>
   </si>
   <si>
+    <t>AaronMarie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r115925367-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -671,6 +746,9 @@
     <t>We stayed in this hotel for one night. The front desk staff were very rude. They would hardly even look at us when we checked in. There was a paper on the desk stating that the water for the hotel would be turned off at 9 am the next morning. I am glad that we noticed it or we would not have know about the water. I would not stay here again.More</t>
   </si>
   <si>
+    <t>amcatanese</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r111452998-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -690,6 +768,9 @@
   </si>
   <si>
     <t>I would just like to THANK greatly the staff of TownePlace Suites for accomodating my sister from New York, my body guard and myself in a beautiful, cleanly, suite with such a comfortable nights rest after along day of travel for my sister. The room was spectacular and the breakfast nice and hot fresh and filling. Love the Hot Fresh made belgian waffles with strawberry topping and the eggs light and fluffy. It was filling and I enjoyed it greatly before going to handle court proceedings. It was an amazing night of rest with a comfy bed and great amount of pillows!!! Thanks you really made the night stay welcoming!!  A.Catanese Downtown Fort Worth, TexasMore</t>
+  </si>
+  <si>
+    <t>Marilyn B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r95171369-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -721,6 +802,9 @@
 We did have a problem one morning with the...We first stayed at this TownePlace Suites 10+ years ago when we relocated to the area.  Then we had an adequately furnished one bedroom hotel room...comfortable but simply furnished and not to many extras.  Having since moved from the area we returned for a week and chose this property due to its location to friends and family.What a difference!  Several years ago the hotel was remodeled and it is now so much more comfortable.  We stayed using our Marriott Reward Points and learned upon checking in that we had been upgraded to a two bedroom suite.  This was perfect since our granddaughter was going to spend the weekend with us.  The suite was nicely furnished with comfortable beds, living room furniture, good lighting and a simple but very functional kitchen.The breakfast is their "Grab and Go" design.  Small bags were provided for you to literally grab and go.  There were muffins, instant oatmeal, yogurt, fruit, granola bars, cereals, and varieties of coffee and teas.  In the afternoon a plate of freshly baked cookies were available in the lobby.  The coffee and tea station was available all day as well as a small area where one could purchase snacks and other items.There are washers and dryers available at a minimal cost, a small exercise room and an outdoor pool.  WiFi was available and computers were located in the lobby.  We did have a problem one morning with the room's telephones.  After alerting the front desk the maintenance people got right on it and fixed the problem.  Front desk personnel were pleasant and helpful.No question about it...we'll stay here again when we return for another visit.More</t>
   </si>
   <si>
+    <t>TravelThom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r12966654-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -736,6 +820,9 @@
     <t>Hotel was okay for the price, however it seemed like there were quite a few college aged kids staying at the hotel.  They were not loud, however hallways and elevators were not the cleanest.  The bedding was fine in the room, and carpet, etc was clean.  Just could use a cleaning or paint job.</t>
   </si>
   <si>
+    <t>KKAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r8460957-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -752,6 +839,9 @@
   </si>
   <si>
     <t>I stayed at this location due to many others being booked in the area and this one was one of the last available for last minute reservations. This is truly one of those places that is made for extended stays. If you're not planning on using the refrigerator, the stove or any of the other items, then maybe you're better off getting a normal hotel room. Half of the room is taken up by the kitchen. Overall, the rooms are clean and have everything you need. The bathrooms are small and most of the carpet and furniture needs to be replaced soon.  However, if you can manage to get this room for less than $90 a night, you'll be getting your money's worth. There is a mall across the highway and plenty of things to do and lots of places to eat as well. One thing to note: The hotel only has one small entrance and if you miss it, you have to go through a maze of parking lots to get back in.More</t>
+  </si>
+  <si>
+    <t>stmcki</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r4033181-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -1274,43 +1364,47 @@
       <c r="A2" t="n">
         <v>37147</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>180304</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1322,56 +1416,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37147</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>180305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1385,50 +1483,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37147</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>180306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1446,50 +1548,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37147</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>180307</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1503,50 +1609,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37147</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175446</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1566,50 +1676,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37147</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>180308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1629,50 +1743,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37147</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>180309</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1692,50 +1810,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37147</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>180310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1755,50 +1877,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37147</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1812,50 +1938,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37147</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>18696</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1871,47 +2001,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37147</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>180312</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -1930,50 +2064,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37147</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>180313</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1991,50 +2129,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37147</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>180314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2054,50 +2196,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37147</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>180315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2115,56 +2261,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37147</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2184,50 +2334,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37147</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2243,47 +2397,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37147</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>180316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -2302,50 +2460,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37147</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>21751</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2363,50 +2525,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37147</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>18377</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2430,50 +2596,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37147</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2497,50 +2667,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37147</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>93375</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2564,50 +2738,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37147</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>180317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2631,50 +2809,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37147</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>139572</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2698,41 +2880,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37147</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>20014</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -2761,50 +2947,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37147</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>180318</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -2822,56 +3012,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="X26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37147</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>180319</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2891,50 +3085,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37147</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2176</v>
+      </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2958,41 +3156,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37147</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>108963</v>
+      </c>
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
@@ -3011,41 +3213,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37147</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>19614</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="J30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -3074,41 +3280,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37147</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>180320</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -3135,7 +3345,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_766.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_766.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,144 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Nyquistr</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r610309069-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109111</t>
+  </si>
+  <si>
+    <t>610309069</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Very comfortable and quiet</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property while on business in the Ft. Worth area.  It was very comfortable and good room layout for a business stay.  It also had an internet TV that you could watch Netflix on that I appreciated.  It also had a decent breakfast area too.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r607456338-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>607456338</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place to stay if traveling with several people </t>
+  </si>
+  <si>
+    <t>We booked a two room suite for a night while in town visiting family. The suite, while not huge, was a decent size for our group of 4 adults and 1 infant. One of the bedrooms wasn't much larger than the queen size bed but the other bedroom was more spacious. The living room and kitchenette were both a decent size. The bathroom was small but it was convenient to have the sink outside the tub and toilet area. Breakfast was good but the area to sit is tiny and only one table is short enough to use with a high chair. The woman running the breakfast area was great!! Would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We booked a two room suite for a night while in town visiting family. The suite, while not huge, was a decent size for our group of 4 adults and 1 infant. One of the bedrooms wasn't much larger than the queen size bed but the other bedroom was more spacious. The living room and kitchenette were both a decent size. The bathroom was small but it was convenient to have the sink outside the tub and toilet area. Breakfast was good but the area to sit is tiny and only one table is short enough to use with a high chair. The woman running the breakfast area was great!! Would definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r597105745-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>597105745</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Surprisingly quiet, clean and value.</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  It is actually cleaner than the other local hotel sites that are brand new.  I credit a qualified housekeeping staff.  The location is perfect for all of my business and and personal needs while on a business trip.  There are a lot of trades folks staying here and I find them the very best of hotel mates.  Be sure to negotiate your rate especially for an extended stay.  The AC really works.  Even though its over 100 degrees outside my room was easily held at 65 (because my traveling companion is from some frozen northern location).  The breakfast was of the best quality of any of the local free hotel breakfasts.  Heck, the other local Marriott has no free breakfast and it costs about $12 for a basic breakfast - so the TownPlace is a real winner.  I agree with other reviewers that the place is quiet and a very good place to rest.  The in-room cooking facilities make it easy to provide your own meals if you are on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  It is actually cleaner than the other local hotel sites that are brand new.  I credit a qualified housekeeping staff.  The location is perfect for all of my business and and personal needs while on a business trip.  There are a lot of trades folks staying here and I find them the very best of hotel mates.  Be sure to negotiate your rate especially for an extended stay.  The AC really works.  Even though its over 100 degrees outside my room was easily held at 65 (because my traveling companion is from some frozen northern location).  The breakfast was of the best quality of any of the local free hotel breakfasts.  Heck, the other local Marriott has no free breakfast and it costs about $12 for a basic breakfast - so the TownPlace is a real winner.  I agree with other reviewers that the place is quiet and a very good place to rest.  The in-room cooking facilities make it easy to provide your own meals if you are on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r594648177-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>594648177</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Gmom approves!</t>
+  </si>
+  <si>
+    <t>We were in town awaiting the arrival of our first grandchild.  I was initially concerned with it being located near the interstate and shopping center.  Our room was also next to elevator and stairs.  The place was sold out too.  We heard no noise from the interstate or ppl in hotel.  I was dreading the noise and it was the quietest hotel I've ever stayed in!!   So being next to the stairs, interstate, shopping and restaurants was a big perk.  Location is great!  This hotel had all the comforts of home.  So after a week long stay I was asking myself - why do I have so much junk at home.  This hotel had everything we needed.  Just like home..In the middle of the night, the smoke detector's battery started chirping.  Why do they always chirp at night?  After looking like an episode of I Love Lucy we decided to call the front desk to see if they could reach  the smoke detector.  Our room was the far end of the property from the office.  I swear he must have sprinted to our room because he was there in no time.  He had us laughing at 1:45 AM making a bad situation better.  Everything was wonderful.  The room, the staff, the property.  If they could add potatoes to the breakfast well I would never leave!  This hotel will definitely be our Fort Worth hotel on return trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>We were in town awaiting the arrival of our first grandchild.  I was initially concerned with it being located near the interstate and shopping center.  Our room was also next to elevator and stairs.  The place was sold out too.  We heard no noise from the interstate or ppl in hotel.  I was dreading the noise and it was the quietest hotel I've ever stayed in!!   So being next to the stairs, interstate, shopping and restaurants was a big perk.  Location is great!  This hotel had all the comforts of home.  So after a week long stay I was asking myself - why do I have so much junk at home.  This hotel had everything we needed.  Just like home..In the middle of the night, the smoke detector's battery started chirping.  Why do they always chirp at night?  After looking like an episode of I Love Lucy we decided to call the front desk to see if they could reach  the smoke detector.  Our room was the far end of the property from the office.  I swear he must have sprinted to our room because he was there in no time.  He had us laughing at 1:45 AM making a bad situation better.  Everything was wonderful.  The room, the staff, the property.  If they could add potatoes to the breakfast well I would never leave!  This hotel will definitely be our Fort Worth hotel on return trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r578276787-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>578276787</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Excellent service and location</t>
+  </si>
+  <si>
+    <t>The owners of this hotel are extremely hospitable! The rooms are clean and well kept, the breakfast was delicious, and the evening snacks were awesome and plentiful! There is definitely an "at home" feeling in this hotel. I highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r548047687-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>548047687</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Beware of theft</t>
+  </si>
+  <si>
+    <t>Please read the review from nyquistr.  I am the sister who is the one that had her precious jewelry stolen while staying at this property.  Not only did this jewelry have monetary value but sentimental as well. I was visiting Fort Worth for my nephews wedding.  When we left our room and returned a couple hours later, all my jewelry was stolen by a hotel employee.  There are no safes in the room as there should be. This happened over 2 months ago and Marriott has done nothing for me.  They pretty much have washed their hands of the  entire incident.  Their response to me is " Once it is in the hands of the insurance company, we no longer are involved".  Well, how convenient.  And the insurance company Liberty Mutual isn't doing a darn thing either.  We stay in Marriott's due to their reputation.  Well, if this is how you treat your guests, then NO THANKS!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Jenelle M, Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Please read the review from nyquistr.  I am the sister who is the one that had her precious jewelry stolen while staying at this property.  Not only did this jewelry have monetary value but sentimental as well. I was visiting Fort Worth for my nephews wedding.  When we left our room and returned a couple hours later, all my jewelry was stolen by a hotel employee.  There are no safes in the room as there should be. This happened over 2 months ago and Marriott has done nothing for me.  They pretty much have washed their hands of the  entire incident.  Their response to me is " Once it is in the hands of the insurance company, we no longer are involved".  Well, how convenient.  And the insurance company Liberty Mutual isn't doing a darn thing either.  We stay in Marriott's due to their reputation.  Well, if this is how you treat your guests, then NO THANKS!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r546888463-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>109111</t>
-  </si>
-  <si>
     <t>546888463</t>
   </si>
   <si>
@@ -177,12 +300,6 @@
     <t>First i am a marriott platinum elite. Stay at marriotts all the time so not blaming corporate yet depending on outcome. I booked this hotel to attend my nephews wedding. I could not go so my wife and my 2 sisters stayed. Very nice hotel. Newly renovated. However my sisters rings were stolen from the room. The maid of course denied it and the manager treated my sisters amd wife as if they were making it up. The maid was arrested however instead of isolating the maid the manager was searching the room. Anyway i am just saying i will never stay at that hotel nor recommend anyone to stay. The hotel insurance company is investigating to determine if hotel is liable. Really?  Hiring a employee with a warrant?  . For theft?MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Jenelle M, Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded December 18, 2017</t>
   </si>
   <si>
@@ -192,9 +309,6 @@
     <t>First i am a marriott platinum elite. Stay at marriotts all the time so not blaming corporate yet depending on outcome. I booked this hotel to attend my nephews wedding. I could not go so my wife and my 2 sisters stayed. Very nice hotel. Newly renovated. However my sisters rings were stolen from the room. The maid of course denied it and the manager treated my sisters amd wife as if they were making it up. The maid was arrested however instead of isolating the maid the manager was searching the room. Anyway i am just saying i will never stay at that hotel nor recommend anyone to stay. The hotel insurance company is investigating to determine if hotel is liable. Really?  Hiring a employee with a warrant?  . For theft?More</t>
   </si>
   <si>
-    <t>Konstantin E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r526390577-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,12 +327,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Apurba1487</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r523381684-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -237,7 +345,46 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>jalonzo22</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r512014380-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>512014380</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Convenient and clean</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here. The newly renovated rooms are clean and comfortable. This is the first hotel in a long time that had the room AC on a cool temp (67) prior to arrival. In Aug that is important for a comfortable night's sleep. The location is 20 minutes for less from almost everything. The staff were all friendly and helpful.  We had a two bedroom suite with a sleeper sofa and loved the room.  The sleeper sofa already needs a new mattress and/or springs for support.  There is a great outdoor space with grills for guest use, a pool, and a fitness room that from what I saw was well used so it must be good.  Breakfast was delicious and had a nice choice of options.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here. The newly renovated rooms are clean and comfortable. This is the first hotel in a long time that had the room AC on a cool temp (67) prior to arrival. In Aug that is important for a comfortable night's sleep. The location is 20 minutes for less from almost everything. The staff were all friendly and helpful.  We had a two bedroom suite with a sleeper sofa and loved the room.  The sleeper sofa already needs a new mattress and/or springs for support.  There is a great outdoor space with grills for guest use, a pool, and a fitness room that from what I saw was well used so it must be good.  Breakfast was delicious and had a nice choice of options.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r508818150-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>508818150</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Super Clean and a Great Value</t>
+  </si>
+  <si>
+    <t>We were in Fort Worth for a wedding.  The location of the TownePlace Suites was ideal.  It had easy access to I-20 and the Chisholm Trail Tollway.  The staff was friendly and helpful.  The hotel had been recently renovated and was very clean!  Breakfast was self-serve and plentiful.  There was everything from apple juice to waffles.  We will definitely stay there on our next trip to Fort Worth!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r504949344-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -255,12 +402,6 @@
     <t>We have previously stayed a Towne Place Suites and really enjoyed it. We usually stay at the one across from Hurricane Harbor but it was completely booked. This one was just as great. The staff was delightful, the Room was super clean and the breakfast was good. Really enjoyed our stay the room was very spacious for our 6 person family.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>Jessalyn P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r495737961-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -279,9 +420,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>20Carolyn10</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r495151654-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,7 +438,40 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>billybob76511</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r446435276-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>446435276</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>My wife and I thought the hotel was VERY clean and well setup.  We only stayed one night, so no need for the kitchen, but it was nicer than most places with kitchens I have stayed.  Even had an oven!  Overall we were very pleased and would stay here again.  I'm writing this while I'm still in the room.  Room 122.P.S. We stayed here to go to a bowl game at TCU.  Getting to TCU seemed convoluted, but getting back seemed straight forward.... Can't trust that GPS sometimes...</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r438638365-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>438638365</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay. </t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed at the the TownPlace Suites &amp; the second time we have enjoyed our stay. Renovated since our last visit we still found rooms &amp; amenities very clean &amp; comfortable. Staff are very friendly &amp; helpful. We stayed for 5 days at the end of six week vacation from Australia &amp; traveling with two teenage boys the two bedrooms were very welcome! The hot Breakfast was fantastic. Ham, patties, eggs, all breads, bagels, muffins, fruit, pastries. Plus take away bags if your on the go! Fairly central to everything, stockyards, shopping malls, restaurants etc. Just make sure your off the roads by 4:00pm. Highways are a nightmare! Will definitely stay here again on next visit to Texas. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed at the the TownPlace Suites &amp; the second time we have enjoyed our stay. Renovated since our last visit we still found rooms &amp; amenities very clean &amp; comfortable. Staff are very friendly &amp; helpful. We stayed for 5 days at the end of six week vacation from Australia &amp; traveling with two teenage boys the two bedrooms were very welcome! The hot Breakfast was fantastic. Ham, patties, eggs, all breads, bagels, muffins, fruit, pastries. Plus take away bags if your on the go! Fairly central to everything, stockyards, shopping malls, restaurants etc. Just make sure your off the roads by 4:00pm. Highways are a nightmare! Will definitely stay here again on next visit to Texas. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r435488658-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -324,9 +495,6 @@
     <t>I stayed here the second night of a conference and wish I had found it the first night.  I was cean, comfortable and well equipt.  When I checked in the staff was friendly and welcoming.  My only problem is his 4 looked like a 7 and so it took be a while to find the room.  But it was right where he had said it would be.There was a really nice seating area out by the pool and as it was a comfortable Texas night I sat out by the pool and relaxed.  The room was great.  It had a nice kitchen, office area, sitting area and very comfortable bed.Breakfast was great.  I mean there are Texas shaped waffles on top of eggs, suasage and biscuits.  The price was less than half the "special conference rate" at the conference hotel and you only got a room.  I got a suite, coffee, breakfast and saved money.  What a deal!More</t>
   </si>
   <si>
-    <t>12102pebblebrook</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r434674393-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,9 +513,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Droos420</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r426244967-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,7 +528,37 @@
     <t xml:space="preserve">One of the best hotels I have ever stayed at! Amazing staff, clean and updated hotel and good breakfast. The warm welcome and amazing staff has made this trip even better! Can't believe how great their customer service is and compared to 5 star hotels at double the price this hotel does a much better job at it! I never write reviews but had to since this is the first time I had a wow factor from a hotel. Everyone working here thank you for your hospitality and keep up the great work! </t>
   </si>
   <si>
-    <t>Rob S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r423942650-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>423942650</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Second time here</t>
+  </si>
+  <si>
+    <t>I chose this hotel after staying here last year for the HH2B's conference and would do it again. Two bedrooms, full kitchen...perfect even just for two people...the extra room is nice! Were there three days, and the worst i can say is i wished they served more than fried eggs, or at least a different type. Not that they were bad, just a change would have been nice. Housekeeping rocks and the front desk staff were friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r406653061-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>406653061</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Perfect Hotel!!! New, Super Clean, Outstanding Service</t>
+  </si>
+  <si>
+    <t>From A to Z I love everything about this particular hotel... Service, location near mall and TCU... Outstanding Service... Brand new rooms the breakfast was great ... I could go on and on!!!!  The Serice was kind, caring and personable!!!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r395294069-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -399,9 +594,6 @@
 The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while...Please keep in mind that this review is prior to the renovation being completed, so the room I stayed in was particularly dumpy.I checked in late at night and stayed here for roughly 3 weeks. The check in process was easy, and the front desk staff was amazing throughout the entire stay, and are the reason it got a 2/5 instead of a 1/5. Things went down hill once i got into the room though. I've never stripped a bed in a hotel so fast to check for bugs in my life (I did not find any). Everything in the room was dated, and it looked as if they stopped all maintenance a year in advance in anticipation of their remodel. The carpet was stained, the furniture was chipped and scuffed, and multiple repairs to the ceiling in the bathroom were really obvious.The housekeeping staff was pretty horrible. They would go several days without refilling the shampoo, essentially refused to do any of the dishes for the entire stay, and when they did it took 4 days for them to give me another pack of soap for the dishwasher itself. The hotel was also very difficult to get into and out of based on its drive way. Near the end of the stay when they started to deliver furniture to the other building the drive way was consistently blocked by trucks for 10-15 minutes at a time while they tried to maneuver themselves through the tiny parking lot.Breakfast was okay, but the room was pretty small and it could have used a bit more variety from day to day rather than 'fried egg with cracked pepper' plus a random breakfast meat.Unfortunately if you are looking for a Marriott in the area, there really isn't anything else and hopefully their remodel will bring it up to par. I might be okay staying here again but only in another year or so once construction is finished.More</t>
   </si>
   <si>
-    <t>Rcsaintj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r383363344-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -417,9 +609,6 @@
     <t>We were on our way home from San Antonio and needed a 2 bedroom hotel suite. Towneplace was clean and the front desk was very helpful. They also had a great breakfast! I would stay here again. Great location!</t>
   </si>
   <si>
-    <t>lonass</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r374151047-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,7 +627,52 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Bowie23</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r368607366-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>368607366</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Very good for business travellers, or self-reliant holiday makers.</t>
+  </si>
+  <si>
+    <t>A good summary of this property is:  efficient, clean, utilitarian (in a good way), spacious and comfortable.The Townplace Suites, southwest, are one of several very similar Marriot properties.  This one is located 8 miles south west of Fort Worth and is entirely suitable for extended business travel or self-sufficient holiday makers with their own car.  Staff are well trained, responsive and helpful.  The suites are spacious and new enough.  They contain a full kitchen, with all the necessary basics for self-contained stays.  The bathroom was clean and well supplied, with a shower over bath arrangement.  Sleep quality was good, there were sufficient extra pillows available and blankets.  The cable offering met our needs with a good selection of channels.  Free WiFi is now pretty standard everywhere, and this was no exception.In terms of amenity, the hotel is located next to a service centre, with a good array of stores to purchase everyday items.  There are also several restaurant chains in walking distance for those not wishing to self-cater in the suite’s kitchen.  Breakfast is on offer each day, and while nothing to write home about, it got the job done.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>A good summary of this property is:  efficient, clean, utilitarian (in a good way), spacious and comfortable.The Townplace Suites, southwest, are one of several very similar Marriot properties.  This one is located 8 miles south west of Fort Worth and is entirely suitable for extended business travel or self-sufficient holiday makers with their own car.  Staff are well trained, responsive and helpful.  The suites are spacious and new enough.  They contain a full kitchen, with all the necessary basics for self-contained stays.  The bathroom was clean and well supplied, with a shower over bath arrangement.  Sleep quality was good, there were sufficient extra pillows available and blankets.  The cable offering met our needs with a good selection of channels.  Free WiFi is now pretty standard everywhere, and this was no exception.In terms of amenity, the hotel is located next to a service centre, with a good array of stores to purchase everyday items.  There are also several restaurant chains in walking distance for those not wishing to self-cater in the suite’s kitchen.  Breakfast is on offer each day, and while nothing to write home about, it got the job done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r334030156-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>334030156</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Never have seen this before</t>
+  </si>
+  <si>
+    <t>Stayed overnight visiting Ft. Worth. Went down for breakfast (complimentary for GUESTS) There was a lady and young boy in the small room to eat loading up eating and taking bags of food off the counters. They ended up with 5 bags of various yogurt, milk and other items and 5 plates of food out to their car and left. Guessing they were not guests. While I applaud Marriott if they let this person help themselves to leftover food while they might be homeless and hungry. I would suggest that they control the situation by having a staff member do this AFTER the paying guests have finished with their meal. There were items on the buffet that as soon as more was brought out, it was placed in a bag or plate leaving none for guests. And they were taking up a table while guests had no place to sit. I even notified two associates that this was happening and they did nothing. Shame on you Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Stephen G, General Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed overnight visiting Ft. Worth. Went down for breakfast (complimentary for GUESTS) There was a lady and young boy in the small room to eat loading up eating and taking bags of food off the counters. They ended up with 5 bags of various yogurt, milk and other items and 5 plates of food out to their car and left. Guessing they were not guests. While I applaud Marriott if they let this person help themselves to leftover food while they might be homeless and hungry. I would suggest that they control the situation by having a staff member do this AFTER the paying guests have finished with their meal. There were items on the buffet that as soon as more was brought out, it was placed in a bag or plate leaving none for guests. And they were taking up a table while guests had no place to sit. I even notified two associates that this was happening and they did nothing. Shame on you Marriott.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r326563910-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -459,9 +693,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Frankvo82</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r324861142-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -486,9 +717,6 @@
     <t>The staff was great, but the room was terrible. I was upgraded to the two bedroom, but it really stinks. I always stay at marriots and this was probably the worst condition. It was clean, but since it was so old and run down. it was just nasty. the couch was so old dirty looking that i took the other sheets from the other room and draped it on the couch. even the cleaning lady knew what i was doing to re do it. I would not stay here again for the price, but i was staying for workMore</t>
   </si>
   <si>
-    <t>James P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r288561619-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -507,7 +735,40 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Stephen G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r286203446-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>286203446</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Restfull Stay in Ft Worth</t>
+  </si>
+  <si>
+    <t>Great hotel in SW Ft Worth. Nice and quite. Furnishings are clean and everything works. I have stayed here several times and when in Ft Worth I choose this one because of consistent quality. They have enlarged the breakfast area and it is well stocked.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r275364818-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>275364818</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Friendliest Staff!</t>
+  </si>
+  <si>
+    <t>We just finished a one week stay at the Marriott Town Place Suites in Ft. Worth. Our situation is that we are in the process of relocation to Ft. Worth and needed an extended stay place while we look for an apartment and visit family.The positive points are a very friendly staff. The entire team, regardless of their individual responsibility were always helpful. They seemed sincere in their greetings throughout our stay. The continental breakfast was just right for us and the breakfast room maintained in very clean condition throughout our stay. Some evenings there were chocolate chip cookies in the lobby. If we were to look for something to improve we did notice that that TV’s on both treadmills were inoperable.Overall a great extended stay facility and excellent team.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We just finished a one week stay at the Marriott Town Place Suites in Ft. Worth. Our situation is that we are in the process of relocation to Ft. Worth and needed an extended stay place while we look for an apartment and visit family.The positive points are a very friendly staff. The entire team, regardless of their individual responsibility were always helpful. They seemed sincere in their greetings throughout our stay. The continental breakfast was just right for us and the breakfast room maintained in very clean condition throughout our stay. Some evenings there were chocolate chip cookies in the lobby. If we were to look for something to improve we did notice that that TV’s on both treadmills were inoperable.Overall a great extended stay facility and excellent team.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r270252429-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -537,9 +798,6 @@
     <t>Stayed here one night, best option, nice big room. Right by major highway. Good food across the freeway (In and Out) and a mall. Many food places open late. Nothing bad about this place and nothing special either. Service good. Facility is a little on the older side. Despite proximity to freeway, it was not really noisy.More</t>
   </si>
   <si>
-    <t>TankerBG</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r265149695-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -555,9 +813,6 @@
     <t xml:space="preserve">Stayed in a two bedroom suite for two nights while taking the family to the zoo and other attractions. We were looking for an easy place to stay with two children that go to sleep at different times(11 year old and 2 year old). This is the place! The staff was extremely polite and helpful. The hotel is located close to multiple restaurants. Kitchen in the room comes in handy for bringing back take-out. We did not get a chance to try the breakfast, but the eating area was very clean and inviting. Overall this was an excellent choice for a family stay. </t>
   </si>
   <si>
-    <t>N0rmalee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r235056191-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -576,7 +831,40 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Louise A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r198195390-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>198195390</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Run Down - Run Away</t>
+  </si>
+  <si>
+    <t>As a long term Marriott loyalist - this is the first hotel to truly drive disappointment.  It started well - great service at check in and the associate was eager to be very helpful.  The sad state of the hotel became evident as soon as I stepped on the elevator.  It creaked and groaned for all three floors.  Upon entering my room, it was obvious that this property takes a beating.  The closet doors were broken and off their hinges, the carpet was worn and the desk chair was also broken and tilted.  I had to work in the morning and so placed a do not disturb notice on my door.  I removed the notice and left for the day at 11:00 am.  Upon my return at 6:30 pm - the room had not been serviced.  No new coffee, no bed made, no attention at all.  Knowing that I was leaving the next morning - I admit - I did not call to the office to send someone up.  Will not stay here again in spite of the competitive price.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>As a long term Marriott loyalist - this is the first hotel to truly drive disappointment.  It started well - great service at check in and the associate was eager to be very helpful.  The sad state of the hotel became evident as soon as I stepped on the elevator.  It creaked and groaned for all three floors.  Upon entering my room, it was obvious that this property takes a beating.  The closet doors were broken and off their hinges, the carpet was worn and the desk chair was also broken and tilted.  I had to work in the morning and so placed a do not disturb notice on my door.  I removed the notice and left for the day at 11:00 am.  Upon my return at 6:30 pm - the room had not been serviced.  No new coffee, no bed made, no attention at all.  Knowing that I was leaving the next morning - I admit - I did not call to the office to send someone up.  Will not stay here again in spite of the competitive price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r195012490-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>195012490</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Great hotel....awsome guest service.</t>
+  </si>
+  <si>
+    <t>From day one Roy and the rest of the front desk catered to our needs and were very helpful. The rooms were clean and huge. Housekeepers were great and cleaned our rooms daily. Its convenient to restaurants, mall, groceries. I was impressed.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r184316740-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -597,15 +885,9 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Before going to TownePlace Suites  I read several of the reviews and thought I would stay elsewhere; however, it was a week-end when most hotels were booked in the area so it was here or a good distance away.  So my two friends and I went and all of us were pleasantly surprised.  From the moment we entered the hotel, the front desk clerk was cheerful and very helpful with information about out destination for the evening and explaining the location of the rooms, etc.  When we arrived in the rooms (we had two rooms) both were clean and we were again pleasantly surprised.  It is true it is an older hotel but I think the staff does an outstanding job in keeping it clean and welcoming for the guests.  Personally I think several of these reviewers are just way too critical.  I don't agree with much of what the critics had to say.  I would definitely stay here again if in the southwest Ft. Worth area.  Oh, by the way,we had no trouble getting back onto I-20 to get to our destination.  Very easy access, so I don't know what that criticism was about.The breakfast was more than adequate.  Plenty of items to choose from and area was clean and inviting.  True, there is not a lot of sitting space but have no problem with eating in the room, if necessary.L. Aldridge, OKC, OKMore</t>
   </si>
   <si>
-    <t>Sarah W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r160938260-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -627,9 +909,6 @@
     <t>My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get...My family and I stayed at the TownePlace Suites in South West Fort Worth, for one week.  We had the two bedroom hotel room.  We had no huge concerns with this room.  The floors were dirty, it turned our feet black, couches and chairs were stained.  The hotel overall needs updating but was generally clean.  The worst part about this room was, it was right next to a side entrance.  Of course people let the door slam at all hours of the night, which made for terrible sleep and crying children. It was room 101, stay away from it!  We stayed in this room for 4 days until one night at bedtime..we walked across the bedroom floor and the floor was flooded, I checked the 2nd bedroom and that one was flooded too. We called the front office, and we were told that they have problems with that room, and that the AC unit outside floods the room sometime.  We were told we could stay in the room or be moved.... but to expect a manager to come check on the room in the morning.... it was midnight and we just decided to move rooms.  My luggage that was stored in the area that was flooded got ruined and stained from their dirty carpet and my clothes in my luggage was also ruined.  So we move rooms, to another 2 bedroom, at the end of the hall.  We finally get all of our stuff in there, its now 1am.  I yanked the blankets back and I see a TON of long black body hair... and stains all of the white sheets.... I start looking around more, there is trash in all the trash cans, hair all over the bathroom, dirty towels balled up in the floor, used toothbrush, used bar of soap and pee in the toilet.... the room had not been cleaned from the previous guest...  So we asked for more sheets and blankets and we had to change the bedding ourselves, its now 2am and my husbands first day at his new job, starts at 6am! The bedding they gave us smelled like a old moldy man.  We only had two days left so we just toughed it out.  We did ask for a late check out because our new apartment wouldn't be ready until 5pm.  And they refused to let us stay, without charging us for a full day.  We even explained to them all of the crap we had to put up with and they still refused to let us stay.  So, there I was with two kids, sitting out in the parking lot until 5pm until I could get into my apartment.   I would not recommend this hotel, you find a nicer, newer and cheaper hotel in the same area...More</t>
   </si>
   <si>
-    <t>JusticeSalmon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r157260188-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -648,7 +927,60 @@
     <t>I spent one night at this TownePlace Suites.  I found the outside and the stairways to be very dirty and smelly.  My room was a one bedroom queen "suite" that was not much bigger than a standard hotel room, but did have a kitchenette, couch, and desk area.  My room was relatively clean, but clearly had wear and tear.  There were stains on the couch and on the carpet.  I did not understand the polka dot shower curtain at all.The breakfast was served in the lobby with the expectation that you would get it and go.  The coffee was excellent and they provided Tropicana orange juice in bottles which was delicious.  I was happy to find a wide range of cereals, including Special K with strawberries! on the other hand, the muffins, Jimmy Dean frozen foods, etc. were substandard at best.  Given the choice, I would not stay here again and would seek lodging on the other side of the freeway.More</t>
   </si>
   <si>
-    <t>Anastasia457</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r148850442-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>148850442</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Smelly pillows, room with odor, older hotel.
+Kitchenette is OK.
+No real breakfast.</t>
+  </si>
+  <si>
+    <t>I expect a 100 dollar hotel from Marriott to be clean and shiny.This hotel is older, with smell in the room and on the pillows.There is no breakfast, but you can cook for yourself. For this kind of hotel go to value place instead in that aresMoreShow less</t>
+  </si>
+  <si>
+    <t>pperr484, General Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2013</t>
+  </si>
+  <si>
+    <t>I expect a 100 dollar hotel from Marriott to be clean and shiny.This hotel is older, with smell in the room and on the pillows.There is no breakfast, but you can cook for yourself. For this kind of hotel go to value place instead in that aresMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r135894471-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>135894471</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Ok, but you can do so much better</t>
+  </si>
+  <si>
+    <t>It is not often that you stay in a hotel in your home town, but I needed a hotel with a kitchen while renovations were being done on my house.This was the closest place, so I spent 4 days there.  On the positive side, while this is an older property, it is very clean, and kept up, which impressed me. Bed was very comfortable.   Staff was very pleasant.   Kitchen appliances are old and the rooms are on the small side.   If you like cold cereal eaten standing up, then the breakfast will meet you needs.  There isn't enough room to have any tables.   Coffee packets provided in room are awful, i had to buy my own coffee.  But my biggest complaint was the choice of TV stations.  Someone at Marriott seems to have not gotten the word that women are business travelers, as all the TV stations provided were for men-every sports, espn, golf, Speed, Spike, fishing, etc. possible.  There were no channels other than the news and cartoons that I would have enjoyed.   If this was the 80's I might be able to understand, but this was nuts.  I left early and moved to the Homewood Suites, which is fabulous.  For $9.00 more a day I have a brand new beautiful spacous suite with a separate bedroom, HD TV, brand new kitchen, dining table and a free hot breakfast and dinner with beer and wine in a spacious dining...It is not often that you stay in a hotel in your home town, but I needed a hotel with a kitchen while renovations were being done on my house.This was the closest place, so I spent 4 days there.  On the positive side, while this is an older property, it is very clean, and kept up, which impressed me. Bed was very comfortable.   Staff was very pleasant.   Kitchen appliances are old and the rooms are on the small side.   If you like cold cereal eaten standing up, then the breakfast will meet you needs.  There isn't enough room to have any tables.   Coffee packets provided in room are awful, i had to buy my own coffee.  But my biggest complaint was the choice of TV stations.  Someone at Marriott seems to have not gotten the word that women are business travelers, as all the TV stations provided were for men-every sports, espn, golf, Speed, Spike, fishing, etc. possible.  There were no channels other than the news and cartoons that I would have enjoyed.   If this was the 80's I might be able to understand, but this was nuts.  I left early and moved to the Homewood Suites, which is fabulous.  For $9.00 more a day I have a brand new beautiful spacous suite with a separate bedroom, HD TV, brand new kitchen, dining table and a free hot breakfast and dinner with beer and wine in a spacious dining area.  The exercise room is bigger and nicer and they have a beautiful indoor pool and hot tub.   If I had to stay in Fort Worth for an extended period, there is no contest here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>pperr484, General Manager at TownePlace Suites Fort Worth Southwest/TCU Area, responded to this reviewResponded August 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2012</t>
+  </si>
+  <si>
+    <t>It is not often that you stay in a hotel in your home town, but I needed a hotel with a kitchen while renovations were being done on my house.This was the closest place, so I spent 4 days there.  On the positive side, while this is an older property, it is very clean, and kept up, which impressed me. Bed was very comfortable.   Staff was very pleasant.   Kitchen appliances are old and the rooms are on the small side.   If you like cold cereal eaten standing up, then the breakfast will meet you needs.  There isn't enough room to have any tables.   Coffee packets provided in room are awful, i had to buy my own coffee.  But my biggest complaint was the choice of TV stations.  Someone at Marriott seems to have not gotten the word that women are business travelers, as all the TV stations provided were for men-every sports, espn, golf, Speed, Spike, fishing, etc. possible.  There were no channels other than the news and cartoons that I would have enjoyed.   If this was the 80's I might be able to understand, but this was nuts.  I left early and moved to the Homewood Suites, which is fabulous.  For $9.00 more a day I have a brand new beautiful spacous suite with a separate bedroom, HD TV, brand new kitchen, dining table and a free hot breakfast and dinner with beer and wine in a spacious dining...It is not often that you stay in a hotel in your home town, but I needed a hotel with a kitchen while renovations were being done on my house.This was the closest place, so I spent 4 days there.  On the positive side, while this is an older property, it is very clean, and kept up, which impressed me. Bed was very comfortable.   Staff was very pleasant.   Kitchen appliances are old and the rooms are on the small side.   If you like cold cereal eaten standing up, then the breakfast will meet you needs.  There isn't enough room to have any tables.   Coffee packets provided in room are awful, i had to buy my own coffee.  But my biggest complaint was the choice of TV stations.  Someone at Marriott seems to have not gotten the word that women are business travelers, as all the TV stations provided were for men-every sports, espn, golf, Speed, Spike, fishing, etc. possible.  There were no channels other than the news and cartoons that I would have enjoyed.   If this was the 80's I might be able to understand, but this was nuts.  I left early and moved to the Homewood Suites, which is fabulous.  For $9.00 more a day I have a brand new beautiful spacous suite with a separate bedroom, HD TV, brand new kitchen, dining table and a free hot breakfast and dinner with beer and wine in a spacious dining area.  The exercise room is bigger and nicer and they have a beautiful indoor pool and hot tub.   If I had to stay in Fort Worth for an extended period, there is no contest here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r130759125-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -670,9 +1002,6 @@
   </si>
   <si>
     <t>My family had the pleasure of staying here for a period of 3 months while in transition overseas. We have nothing but FABULOUS things to say about the hotel. The location was excellent, near shopping and restaurants, even without a car all day I could walk to a supermarket, and nearby shops and restaurants. Even take a taxi to the mall if needed. Laundry onsite was great, kitchen in the room, the gym, grab and go breakfast, fresh cookies every night and even local restaurants had meet and greets during the week The staff was friendly and standing by to make sure our stay was comfortable (I asked for a non stick frying pan and I got it!) Marlon, Lori and the gang went out of their way and always with a smile, no matter what our request was. Hands down after staying in 4 properties before we found Townplace, this is our home away from home when in FW! Great Job guys!!!More</t>
-  </si>
-  <si>
-    <t>notyours</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r122850148-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -698,9 +1027,6 @@
 The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the...The wife and I recently spent 2 weekend nights here.  We normally would have stayed in downtown FW or Arlington but the Cotton Bowel had driven up the prices considerably.  The day of our arrival I received an email from the manager welcoming us to their property.  I told told him that we would be there to celebrate our anniversary.  Upon arrival the desk clerk Laurie greeted us and immediately wished us a happy anniversary.  She then gave us a printed list of things to do in the area and made recommendations as to restaurants, etc.  She then handed us a goodie bag with bottled water and cookies and advised us they had upgraded our room to a 1 bed-room suite free of charge.   Upon entry to the room I discovered that they had left a small flower arrangement with a card wishing us a happy anniversary.  Nice touch.  The room was very nice and large, I have friends who live in apartments smaller that that.  I was concerned about it being right next to the elevator but the soundproofing was excellent, never heard it.  Though it did not have the granite counter tops and stainless steel appliances you would see in a Residence Inn everything was well cared for and clean.  My only complaint the whole weekend was the housekeeping passing over our room with the "Not Now" sign put on it at 10am and never coming back the whole day to refresh our room. The location of the hotel can be a bit tricky, especially getting back to I-20.   Upon checkout Laurie was there again ensuring that we had a good stay.  Friendliness and service were above and beyond what I expected and exceeded any hotel I've stayed in this year by far.  Definitely put this place on your list.More</t>
   </si>
   <si>
-    <t>eneiford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r121136865-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -716,7 +1042,52 @@
     <t>My husband and I have stayed at several Towneplace Suite properties throughout texas. This one was newer and very clean. The kitchenette was updated with nice appliances and the flooring was much improved. The rate was reasonable and the front desk staff was very accommodating. If you are looking for trendy and modern, this is not the place for you. If you want clean, great price, location to the downtown area and main attractions and a kitchenette to help with your food budget this is the place to be!</t>
   </si>
   <si>
-    <t>AaronMarie</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r120166149-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>120166149</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>best cookie maker stays here :)</t>
+  </si>
+  <si>
+    <t>the cookies this hotel serves in the evening are awesome.the breakfast in the morning is too monotonous. no toasts no eggs just cereals and juice and banana. that about it.hampton inn would have been any day a better choice in case of food.the location of this restaurant gives it a heads up</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r119333341-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>119333341</t>
+  </si>
+  <si>
+    <t>10/15/2011</t>
+  </si>
+  <si>
+    <t>Overall it was ok</t>
+  </si>
+  <si>
+    <t>The service staff is really friendly, polite and helpful. They are always greeting with a smile and ever ready to help.
+I was there on a work trip so I didn't have to pay, but I noticed that the walk-in rate starts at $189, which I feel is kinda steep, but I'm sure the promotional internet rates are lower.
+The bed is really comfy and the curtains are great at keeping the light out, but I do have a couple of complains. 1) It is located next to the expressway, so you can hear trucks and motorcycles. 2) there is no remote for the AC, so if you wake up feeling too warm/cold, you'll have to climb out to adjust the temperature.
+It is relatively clean, with just a few misses here and there.
+Location is not great for travellers, but ok for me as it's near my place of work. Hulen Mall and Overton Plaza is nearby so it's really easy to get groceries, food, gas and do some shopping.
+Rooms are slightly worn, but overall of good standard. Everything's there. Only complain here is that the walls and ceilings are thin. So if someone slams a door in the hallway, you'll hear it. And if you're unlucky enough like me to have a neighbour upstairs heavy footsteps, the light fixtures and ceilings vibrate when he stomps around.
+There's no restaurant but they do provide simple breakfast of cereals,...The service staff is really friendly, polite and helpful. They are always greeting with a smile and ever ready to help.I was there on a work trip so I didn't have to pay, but I noticed that the walk-in rate starts at $189, which I feel is kinda steep, but I'm sure the promotional internet rates are lower.The bed is really comfy and the curtains are great at keeping the light out, but I do have a couple of complains. 1) It is located next to the expressway, so you can hear trucks and motorcycles. 2) there is no remote for the AC, so if you wake up feeling too warm/cold, you'll have to climb out to adjust the temperature.It is relatively clean, with just a few misses here and there.Location is not great for travellers, but ok for me as it's near my place of work. Hulen Mall and Overton Plaza is nearby so it's really easy to get groceries, food, gas and do some shopping.Rooms are slightly worn, but overall of good standard. Everything's there. Only complain here is that the walls and ceilings are thin. So if someone slams a door in the hallway, you'll hear it. And if you're unlucky enough like me to have a neighbour upstairs heavy footsteps, the light fixtures and ceilings vibrate when he stomps around.There's no restaurant but they do provide simple breakfast of cereals, muesli bars, simple fruit, yoghurt, milk and juice. It's almost the same selection every day,  but it doesn't really bother me.MoreShow less</t>
+  </si>
+  <si>
+    <t>The service staff is really friendly, polite and helpful. They are always greeting with a smile and ever ready to help.
+I was there on a work trip so I didn't have to pay, but I noticed that the walk-in rate starts at $189, which I feel is kinda steep, but I'm sure the promotional internet rates are lower.
+The bed is really comfy and the curtains are great at keeping the light out, but I do have a couple of complains. 1) It is located next to the expressway, so you can hear trucks and motorcycles. 2) there is no remote for the AC, so if you wake up feeling too warm/cold, you'll have to climb out to adjust the temperature.
+It is relatively clean, with just a few misses here and there.
+Location is not great for travellers, but ok for me as it's near my place of work. Hulen Mall and Overton Plaza is nearby so it's really easy to get groceries, food, gas and do some shopping.
+Rooms are slightly worn, but overall of good standard. Everything's there. Only complain here is that the walls and ceilings are thin. So if someone slams a door in the hallway, you'll hear it. And if you're unlucky enough like me to have a neighbour upstairs heavy footsteps, the light fixtures and ceilings vibrate when he stomps around.
+There's no restaurant but they do provide simple breakfast of cereals,...The service staff is really friendly, polite and helpful. They are always greeting with a smile and ever ready to help.I was there on a work trip so I didn't have to pay, but I noticed that the walk-in rate starts at $189, which I feel is kinda steep, but I'm sure the promotional internet rates are lower.The bed is really comfy and the curtains are great at keeping the light out, but I do have a couple of complains. 1) It is located next to the expressway, so you can hear trucks and motorcycles. 2) there is no remote for the AC, so if you wake up feeling too warm/cold, you'll have to climb out to adjust the temperature.It is relatively clean, with just a few misses here and there.Location is not great for travellers, but ok for me as it's near my place of work. Hulen Mall and Overton Plaza is nearby so it's really easy to get groceries, food, gas and do some shopping.Rooms are slightly worn, but overall of good standard. Everything's there. Only complain here is that the walls and ceilings are thin. So if someone slams a door in the hallway, you'll hear it. And if you're unlucky enough like me to have a neighbour upstairs heavy footsteps, the light fixtures and ceilings vibrate when he stomps around.There's no restaurant but they do provide simple breakfast of cereals, muesli bars, simple fruit, yoghurt, milk and juice. It's almost the same selection every day,  but it doesn't really bother me.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r115925367-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -746,9 +1117,6 @@
     <t>We stayed in this hotel for one night. The front desk staff were very rude. They would hardly even look at us when we checked in. There was a paper on the desk stating that the water for the hotel would be turned off at 9 am the next morning. I am glad that we noticed it or we would not have know about the water. I would not stay here again.More</t>
   </si>
   <si>
-    <t>amcatanese</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r111452998-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -768,9 +1136,6 @@
   </si>
   <si>
     <t>I would just like to THANK greatly the staff of TownePlace Suites for accomodating my sister from New York, my body guard and myself in a beautiful, cleanly, suite with such a comfortable nights rest after along day of travel for my sister. The room was spectacular and the breakfast nice and hot fresh and filling. Love the Hot Fresh made belgian waffles with strawberry topping and the eggs light and fluffy. It was filling and I enjoyed it greatly before going to handle court proceedings. It was an amazing night of rest with a comfy bed and great amount of pillows!!! Thanks you really made the night stay welcoming!!  A.Catanese Downtown Fort Worth, TexasMore</t>
-  </si>
-  <si>
-    <t>Marilyn B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r95171369-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -802,7 +1167,40 @@
 We did have a problem one morning with the...We first stayed at this TownePlace Suites 10+ years ago when we relocated to the area.  Then we had an adequately furnished one bedroom hotel room...comfortable but simply furnished and not to many extras.  Having since moved from the area we returned for a week and chose this property due to its location to friends and family.What a difference!  Several years ago the hotel was remodeled and it is now so much more comfortable.  We stayed using our Marriott Reward Points and learned upon checking in that we had been upgraded to a two bedroom suite.  This was perfect since our granddaughter was going to spend the weekend with us.  The suite was nicely furnished with comfortable beds, living room furniture, good lighting and a simple but very functional kitchen.The breakfast is their "Grab and Go" design.  Small bags were provided for you to literally grab and go.  There were muffins, instant oatmeal, yogurt, fruit, granola bars, cereals, and varieties of coffee and teas.  In the afternoon a plate of freshly baked cookies were available in the lobby.  The coffee and tea station was available all day as well as a small area where one could purchase snacks and other items.There are washers and dryers available at a minimal cost, a small exercise room and an outdoor pool.  WiFi was available and computers were located in the lobby.  We did have a problem one morning with the room's telephones.  After alerting the front desk the maintenance people got right on it and fixed the problem.  Front desk personnel were pleasant and helpful.No question about it...we'll stay here again when we return for another visit.More</t>
   </si>
   <si>
-    <t>TravelThom</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r33672214-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>33672214</t>
+  </si>
+  <si>
+    <t>07/01/2009</t>
+  </si>
+  <si>
+    <t>I was disappointed with Marriott--additional response</t>
+  </si>
+  <si>
+    <t>I just got a call from the hotel manager, Alicia, was very polite and she listened to my complaint.  After she apologized she credited me with enough reward points for a night stay.  I appreciate her response and action.  She did thank me for reporting the problems that I had experience and said if they are unaware of them they can not fix them.  Thank you Alicia.  Since the Marriott made this right,  I am changing my mind and would recommend this hotel to a friend.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r20131854-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>20131854</t>
+  </si>
+  <si>
+    <t>09/16/2008</t>
+  </si>
+  <si>
+    <t>not bad, a bit noisy</t>
+  </si>
+  <si>
+    <t>not a bad place overall but pretty thin walls and there seemed to be a lot of kids and extra noise on the weekends.  The TV and remote was pretty old and the NBC channel was not working.  A little pricey for what you get but clean and comfortable.  Hooters and Chuckeecheese within walking distance but you'll need a car for anything else.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r12966654-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -820,9 +1218,6 @@
     <t>Hotel was okay for the price, however it seemed like there were quite a few college aged kids staying at the hotel.  They were not loud, however hallways and elevators were not the cleanest.  The bedding was fine in the room, and carpet, etc was clean.  Just could use a cleaning or paint job.</t>
   </si>
   <si>
-    <t>KKAustin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r8460957-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -839,9 +1234,6 @@
   </si>
   <si>
     <t>I stayed at this location due to many others being booked in the area and this one was one of the last available for last minute reservations. This is truly one of those places that is made for extended stays. If you're not planning on using the refrigerator, the stove or any of the other items, then maybe you're better off getting a normal hotel room. Half of the room is taken up by the kitchen. Overall, the rooms are clean and have everything you need. The bathrooms are small and most of the carpet and furniture needs to be replaced soon.  However, if you can manage to get this room for less than $90 a night, you'll be getting your money's worth. There is a mall across the highway and plenty of things to do and lots of places to eat as well. One thing to note: The hotel only has one small entrance and if you miss it, you have to go through a maze of parking lots to get back in.More</t>
-  </si>
-  <si>
-    <t>stmcki</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109111-r4033181-TownePlace_Suites_Fort_Worth_Southwest_TCU_Area-Fort_Worth_Texas.html</t>
@@ -1364,112 +1756,106 @@
       <c r="A2" t="n">
         <v>37147</v>
       </c>
-      <c r="B2" t="n">
-        <v>180304</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37147</v>
       </c>
-      <c r="B3" t="n">
-        <v>180305</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1483,64 +1869,62 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37147</v>
       </c>
-      <c r="B4" t="n">
-        <v>180306</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1548,124 +1932,120 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37147</v>
       </c>
-      <c r="B5" t="n">
-        <v>180307</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37147</v>
       </c>
-      <c r="B6" t="n">
-        <v>175446</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1676,382 +2056,354 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37147</v>
       </c>
-      <c r="B7" t="n">
-        <v>180308</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37147</v>
       </c>
-      <c r="B8" t="n">
-        <v>180309</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37147</v>
       </c>
-      <c r="B9" t="n">
-        <v>180310</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37147</v>
       </c>
-      <c r="B10" t="n">
-        <v>180311</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37147</v>
       </c>
-      <c r="B11" t="n">
-        <v>18696</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>122</v>
-      </c>
-      <c r="X11" t="s">
-        <v>123</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37147</v>
       </c>
-      <c r="B12" t="n">
-        <v>180312</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -2064,119 +2416,107 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37147</v>
       </c>
-      <c r="B13" t="n">
-        <v>180313</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37147</v>
       </c>
-      <c r="B14" t="n">
-        <v>180314</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2196,60 +2536,56 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37147</v>
       </c>
-      <c r="B15" t="n">
-        <v>180315</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
@@ -2260,73 +2596,63 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>151</v>
-      </c>
-      <c r="X15" t="s">
-        <v>152</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37147</v>
       </c>
-      <c r="B16" t="n">
-        <v>1260</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2334,187 +2660,179 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37147</v>
       </c>
-      <c r="B17" t="n">
-        <v>7235</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>168</v>
-      </c>
-      <c r="X17" t="s">
-        <v>169</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37147</v>
       </c>
-      <c r="B18" t="n">
-        <v>180316</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37147</v>
       </c>
-      <c r="B19" t="n">
-        <v>21751</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2525,212 +2843,174 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37147</v>
       </c>
-      <c r="B20" t="n">
-        <v>18377</v>
-      </c>
-      <c r="C20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s">
-        <v>191</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37147</v>
       </c>
-      <c r="B21" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37147</v>
       </c>
-      <c r="B22" t="n">
-        <v>93375</v>
-      </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2738,205 +3018,175 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37147</v>
       </c>
-      <c r="B23" t="n">
-        <v>180317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>187</v>
+      </c>
+      <c r="X23" t="s">
+        <v>188</v>
+      </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37147</v>
       </c>
-      <c r="B24" t="n">
-        <v>139572</v>
-      </c>
-      <c r="C24" t="s">
-        <v>216</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s">
-        <v>222</v>
-      </c>
-      <c r="O24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37147</v>
       </c>
-      <c r="B25" t="n">
-        <v>20014</v>
-      </c>
-      <c r="C25" t="s">
-        <v>224</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
       <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -2947,202 +3197,180 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37147</v>
       </c>
-      <c r="B26" t="n">
-        <v>180318</v>
-      </c>
-      <c r="C26" t="s">
-        <v>230</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
+      <c r="R26" t="n">
         <v>3</v>
       </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>237</v>
-      </c>
-      <c r="X26" t="s">
-        <v>238</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37147</v>
       </c>
-      <c r="B27" t="n">
-        <v>180319</v>
-      </c>
-      <c r="C27" t="s">
-        <v>240</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>214</v>
+      </c>
+      <c r="X27" t="s">
+        <v>215</v>
+      </c>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37147</v>
       </c>
-      <c r="B28" t="n">
-        <v>2176</v>
-      </c>
-      <c r="C28" t="s">
-        <v>248</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
         <v>5</v>
       </c>
@@ -3156,119 +3384,125 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37147</v>
       </c>
-      <c r="B29" t="n">
-        <v>108963</v>
-      </c>
-      <c r="C29" t="s">
-        <v>256</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>228</v>
+      </c>
+      <c r="X29" t="s">
+        <v>229</v>
+      </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37147</v>
       </c>
-      <c r="B30" t="n">
-        <v>19614</v>
-      </c>
-      <c r="C30" t="s">
-        <v>262</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
         <v>3</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3280,64 +3514,62 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37147</v>
       </c>
-      <c r="B31" t="n">
-        <v>180320</v>
-      </c>
-      <c r="C31" t="s">
-        <v>269</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3345,7 +3577,1545 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>255</v>
+      </c>
+      <c r="X33" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" t="s">
+        <v>265</v>
+      </c>
+      <c r="K35" t="s">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>268</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>282</v>
+      </c>
+      <c r="J38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s">
+        <v>285</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>286</v>
+      </c>
+      <c r="O38" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" t="s">
+        <v>291</v>
+      </c>
+      <c r="L39" t="s">
+        <v>292</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>296</v>
+      </c>
+      <c r="J40" t="s">
+        <v>297</v>
+      </c>
+      <c r="K40" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" t="s">
+        <v>299</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>302</v>
+      </c>
+      <c r="J41" t="s">
+        <v>303</v>
+      </c>
+      <c r="K41" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" t="s">
+        <v>305</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>306</v>
+      </c>
+      <c r="X41" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>314</v>
+      </c>
+      <c r="O42" t="s">
+        <v>315</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>316</v>
+      </c>
+      <c r="X42" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>319</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" t="s">
+        <v>323</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>324</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" t="s">
+        <v>335</v>
+      </c>
+      <c r="K45" t="s">
+        <v>336</v>
+      </c>
+      <c r="L45" t="s">
+        <v>337</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>342</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>315</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>345</v>
+      </c>
+      <c r="J47" t="s">
+        <v>346</v>
+      </c>
+      <c r="K47" t="s">
+        <v>347</v>
+      </c>
+      <c r="L47" t="s">
+        <v>348</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>356</v>
+      </c>
+      <c r="X48" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" t="s">
+        <v>368</v>
+      </c>
+      <c r="K50" t="s">
+        <v>369</v>
+      </c>
+      <c r="L50" t="s">
+        <v>370</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>371</v>
+      </c>
+      <c r="O50" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51" t="s">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s">
+        <v>376</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>378</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>391</v>
+      </c>
+      <c r="J54" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54" t="s">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s">
+        <v>394</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37147</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" t="s">
+        <v>399</v>
+      </c>
+      <c r="L55" t="s">
+        <v>400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
